--- a/KatalonData/VoidCreditThem.xlsx
+++ b/KatalonData/VoidCreditThem.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{3DA269BE-A468-48CD-9070-EBB3FD0E9520}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F088B5E-C470-45D6-8F3C-1E616170AAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14010" windowWidth="24525" xWindow="2490" xr2:uid="{68A01D60-C0DA-4B1C-A077-755B50774099}" yWindow="1545"/>
+    <workbookView xWindow="2490" yWindow="1545" windowWidth="24525" windowHeight="14010" xr2:uid="{68A01D60-C0DA-4B1C-A077-755B50774099}"/>
   </bookViews>
   <sheets>
-    <sheet name="CreditThem" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="4"/>
-    <sheet name="Sheet1" r:id="rId3" sheetId="3"/>
-    <sheet name="VoidThem" r:id="rId4" sheetId="2"/>
+    <sheet name="CreditThem" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="VoidThem" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreditThem!$A$1:$A$282</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">VoidThem!$A$1:$A$272</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="559">
   <si>
     <t>TransactionID</t>
   </si>
@@ -903,9 +907,6 @@
   </si>
   <si>
     <t>Thu Jan 18 18:05:24 EST 2024</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Thu Jan 18 18:37:34 EST 2024</t>
@@ -1725,7 +1726,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1768,26 +1768,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1804,10 +1804,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1842,7 +1842,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1894,7 +1894,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2005,21 +2005,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2036,7 +2036,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2088,27 +2088,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E532ABCF-DAB7-44D4-A3CE-3A31591BDD05}">
-  <dimension ref="A1:E282"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E532ABCF-DAB7-44D4-A3CE-3A31591BDD05}">
+  <dimension ref="A1:F282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C282"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2240,7 +2240,7 @@
         <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -2254,7 +2254,7 @@
         <v>170</v>
       </c>
       <c r="B13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -2268,7 +2268,7 @@
         <v>170</v>
       </c>
       <c r="B14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -2282,7 +2282,7 @@
         <v>170</v>
       </c>
       <c r="B15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -2296,7 +2296,7 @@
         <v>170</v>
       </c>
       <c r="B16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2305,12 +2305,12 @@
         <v>315614221</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>170</v>
       </c>
       <c r="B17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -2319,12 +2319,12 @@
         <v>315614243</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>170</v>
       </c>
       <c r="B18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -2333,12 +2333,12 @@
         <v>315614414</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>170</v>
       </c>
       <c r="B19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -2347,12 +2347,12 @@
         <v>315614921</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -2361,12 +2361,12 @@
         <v>315614984</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -2375,12 +2375,12 @@
         <v>315614988</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>170</v>
       </c>
       <c r="B22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -2389,12 +2389,12 @@
         <v>315615022</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>170</v>
       </c>
       <c r="B23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -2403,12 +2403,12 @@
         <v>315615060</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>170</v>
       </c>
       <c r="B24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -2417,12 +2417,12 @@
         <v>315615169</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>170</v>
       </c>
       <c r="B25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -2431,12 +2431,12 @@
         <v>315615257</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>170</v>
       </c>
       <c r="B26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -2445,12 +2445,12 @@
         <v>315615432</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>170</v>
       </c>
       <c r="B27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -2459,12 +2459,12 @@
         <v>315615497</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>170</v>
       </c>
       <c r="B28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -2473,12 +2473,12 @@
         <v>315615618</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>170</v>
       </c>
       <c r="B29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -2487,12 +2487,12 @@
         <v>315615634</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>170</v>
       </c>
       <c r="B30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -2501,12 +2501,12 @@
         <v>315615693</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>170</v>
       </c>
       <c r="B31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -2515,12 +2515,12 @@
         <v>315615751</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>170</v>
       </c>
       <c r="B32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -2529,12 +2529,12 @@
         <v>315615808</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>170</v>
       </c>
       <c r="B33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -2543,12 +2543,12 @@
         <v>315615877</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>170</v>
       </c>
       <c r="B34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -2557,12 +2557,12 @@
         <v>315615964</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>170</v>
       </c>
       <c r="B35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -2571,12 +2571,12 @@
         <v>315615989</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>170</v>
       </c>
       <c r="B36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -2585,12 +2585,12 @@
         <v>315616177</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>170</v>
       </c>
       <c r="B37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -2599,12 +2599,12 @@
         <v>315616287</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>170</v>
       </c>
       <c r="B38" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -2613,12 +2613,12 @@
         <v>315616342</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>170</v>
       </c>
       <c r="B39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -2627,12 +2627,12 @@
         <v>315616471</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>170</v>
       </c>
       <c r="B40" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -2641,12 +2641,12 @@
         <v>315616534</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>170</v>
       </c>
       <c r="B41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -2655,12 +2655,12 @@
         <v>315616577</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>170</v>
       </c>
       <c r="B42" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -2669,12 +2669,12 @@
         <v>315616638</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>170</v>
       </c>
       <c r="B43" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
@@ -2683,12 +2683,12 @@
         <v>315616648</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>170</v>
       </c>
       <c r="B44" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
@@ -2697,12 +2697,12 @@
         <v>315616710</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>170</v>
       </c>
       <c r="B45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -2711,12 +2711,12 @@
         <v>315616771</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>170</v>
       </c>
       <c r="B46" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
@@ -2725,12 +2725,12 @@
         <v>315616781</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>170</v>
       </c>
       <c r="B47" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
@@ -2739,12 +2739,12 @@
         <v>315616828</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>170</v>
       </c>
       <c r="B48" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
@@ -2753,12 +2753,12 @@
         <v>315616852</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>170</v>
       </c>
       <c r="B49" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
@@ -2767,12 +2767,12 @@
         <v>315616890</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>170</v>
       </c>
       <c r="B50" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
@@ -2781,12 +2781,12 @@
         <v>315616985</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>170</v>
       </c>
       <c r="B51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
@@ -2795,12 +2795,12 @@
         <v>315617124</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>170</v>
       </c>
       <c r="B52" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
@@ -2809,12 +2809,12 @@
         <v>315617161</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>170</v>
       </c>
       <c r="B53" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
@@ -2823,12 +2823,12 @@
         <v>315617228</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>170</v>
       </c>
       <c r="B54" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
@@ -2837,12 +2837,12 @@
         <v>315617273</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>170</v>
       </c>
       <c r="B55" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
@@ -2851,12 +2851,12 @@
         <v>315617336</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>170</v>
       </c>
       <c r="B56" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
@@ -2865,12 +2865,12 @@
         <v>315617405</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>170</v>
       </c>
       <c r="B57" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
@@ -2879,12 +2879,12 @@
         <v>315617546</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>170</v>
       </c>
       <c r="B58" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
@@ -2893,12 +2893,12 @@
         <v>315617657</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>170</v>
       </c>
       <c r="B59" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
@@ -2907,12 +2907,12 @@
         <v>315617923</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>170</v>
       </c>
       <c r="B60" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
@@ -2921,12 +2921,12 @@
         <v>315617963</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>170</v>
       </c>
       <c r="B61" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
@@ -2935,12 +2935,12 @@
         <v>315618092</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>170</v>
       </c>
       <c r="B62" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
@@ -2949,12 +2949,12 @@
         <v>315618101</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>170</v>
       </c>
       <c r="B63" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
@@ -2963,12 +2963,12 @@
         <v>315618166</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>170</v>
       </c>
       <c r="B64" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
@@ -2977,12 +2977,12 @@
         <v>315618202</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>170</v>
       </c>
       <c r="B65" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
@@ -2991,12 +2991,12 @@
         <v>315618204</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>170</v>
       </c>
       <c r="B66" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
@@ -3005,12 +3005,12 @@
         <v>315618233</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>170</v>
       </c>
       <c r="B67" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C67" t="s">
         <v>4</v>
@@ -3019,12 +3019,12 @@
         <v>315618333</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>170</v>
       </c>
       <c r="B68" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C68" t="s">
         <v>4</v>
@@ -3033,12 +3033,12 @@
         <v>315618393</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>170</v>
       </c>
       <c r="B69" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C69" t="s">
         <v>4</v>
@@ -3047,12 +3047,12 @@
         <v>315618452</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>170</v>
       </c>
       <c r="B70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
@@ -3061,12 +3061,12 @@
         <v>315618544</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>170</v>
       </c>
       <c r="B71" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
@@ -3075,12 +3075,12 @@
         <v>315618600</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>170</v>
       </c>
       <c r="B72" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C72" t="s">
         <v>4</v>
@@ -3089,12 +3089,12 @@
         <v>315618692</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>170</v>
       </c>
       <c r="B73" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C73" t="s">
         <v>4</v>
@@ -3103,12 +3103,12 @@
         <v>315618813</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>170</v>
       </c>
       <c r="B74" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C74" t="s">
         <v>4</v>
@@ -3117,12 +3117,12 @@
         <v>315618890</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>170</v>
       </c>
       <c r="B75" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C75" t="s">
         <v>4</v>
@@ -3131,12 +3131,12 @@
         <v>315618977</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>170</v>
       </c>
       <c r="B76" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C76" t="s">
         <v>4</v>
@@ -3145,12 +3145,12 @@
         <v>315619024</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>170</v>
       </c>
       <c r="B77" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C77" t="s">
         <v>4</v>
@@ -3159,12 +3159,12 @@
         <v>315619033</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>170</v>
       </c>
       <c r="B78" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C78" t="s">
         <v>4</v>
@@ -3173,12 +3173,12 @@
         <v>315619041</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>170</v>
       </c>
       <c r="B79" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C79" t="s">
         <v>4</v>
@@ -3187,12 +3187,12 @@
         <v>315619153</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>170</v>
       </c>
       <c r="B80" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -3201,12 +3201,12 @@
         <v>315619161</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>170</v>
       </c>
       <c r="B81" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
@@ -3215,12 +3215,12 @@
         <v>315619220</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>170</v>
       </c>
       <c r="B82" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
@@ -3229,12 +3229,12 @@
         <v>315619375</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>170</v>
       </c>
       <c r="B83" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C83" t="s">
         <v>4</v>
@@ -3243,12 +3243,12 @@
         <v>315619422</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>170</v>
       </c>
       <c r="B84" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C84" t="s">
         <v>4</v>
@@ -3257,12 +3257,12 @@
         <v>315619428</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>170</v>
       </c>
       <c r="B85" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C85" t="s">
         <v>4</v>
@@ -3271,12 +3271,12 @@
         <v>315619481</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>170</v>
       </c>
       <c r="B86" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C86" t="s">
         <v>4</v>
@@ -3285,12 +3285,12 @@
         <v>315619545</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>170</v>
       </c>
       <c r="B87" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C87" t="s">
         <v>4</v>
@@ -3299,12 +3299,12 @@
         <v>315619605</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>170</v>
       </c>
       <c r="B88" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C88" t="s">
         <v>4</v>
@@ -3313,12 +3313,12 @@
         <v>315619706</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>170</v>
       </c>
       <c r="B89" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C89" t="s">
         <v>4</v>
@@ -3327,12 +3327,12 @@
         <v>315619739</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>170</v>
       </c>
       <c r="B90" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C90" t="s">
         <v>4</v>
@@ -3341,12 +3341,12 @@
         <v>315619822</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>170</v>
       </c>
       <c r="B91" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C91" t="s">
         <v>4</v>
@@ -3355,12 +3355,12 @@
         <v>315619965</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>170</v>
       </c>
       <c r="B92" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C92" t="s">
         <v>4</v>
@@ -3369,12 +3369,12 @@
         <v>315620032</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>170</v>
       </c>
       <c r="B93" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C93" t="s">
         <v>4</v>
@@ -3383,12 +3383,12 @@
         <v>315620071</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>170</v>
       </c>
       <c r="B94" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C94" t="s">
         <v>4</v>
@@ -3397,12 +3397,12 @@
         <v>315620134</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>170</v>
       </c>
       <c r="B95" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C95" t="s">
         <v>4</v>
@@ -3411,12 +3411,12 @@
         <v>315620203</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>170</v>
       </c>
       <c r="B96" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C96" t="s">
         <v>4</v>
@@ -3425,12 +3425,12 @@
         <v>315620324</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>170</v>
       </c>
       <c r="B97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C97" t="s">
         <v>4</v>
@@ -3439,12 +3439,12 @@
         <v>315620325</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>170</v>
       </c>
       <c r="B98" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C98" t="s">
         <v>4</v>
@@ -3453,12 +3453,12 @@
         <v>315620398</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>170</v>
       </c>
       <c r="B99" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C99" t="s">
         <v>4</v>
@@ -3467,12 +3467,12 @@
         <v>315620471</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>170</v>
       </c>
       <c r="B100" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -3481,12 +3481,12 @@
         <v>315620539</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>170</v>
       </c>
       <c r="B101" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C101" t="s">
         <v>4</v>
@@ -3495,12 +3495,12 @@
         <v>315620651</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>170</v>
       </c>
       <c r="B102" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C102" t="s">
         <v>4</v>
@@ -3509,12 +3509,12 @@
         <v>315620765</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>170</v>
       </c>
       <c r="B103" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C103" t="s">
         <v>4</v>
@@ -3523,12 +3523,12 @@
         <v>315620766</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>170</v>
       </c>
       <c r="B104" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C104" t="s">
         <v>4</v>
@@ -3537,12 +3537,12 @@
         <v>315620826</v>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>170</v>
       </c>
       <c r="B105" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C105" t="s">
         <v>4</v>
@@ -3551,12 +3551,12 @@
         <v>315620864</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>170</v>
       </c>
       <c r="B106" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C106" t="s">
         <v>4</v>
@@ -3565,12 +3565,12 @@
         <v>315620894</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>170</v>
       </c>
       <c r="B107" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C107" t="s">
         <v>4</v>
@@ -3579,12 +3579,12 @@
         <v>315620905</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>170</v>
       </c>
       <c r="B108" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C108" t="s">
         <v>4</v>
@@ -3593,12 +3593,12 @@
         <v>315620933</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>170</v>
       </c>
       <c r="B109" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C109" t="s">
         <v>4</v>
@@ -3607,12 +3607,12 @@
         <v>315620964</v>
       </c>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>170</v>
       </c>
       <c r="B110" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C110" t="s">
         <v>4</v>
@@ -3621,12 +3621,12 @@
         <v>315621008</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>170</v>
       </c>
       <c r="B111" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C111" t="s">
         <v>4</v>
@@ -3635,12 +3635,12 @@
         <v>315621187</v>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>170</v>
       </c>
       <c r="B112" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C112" t="s">
         <v>4</v>
@@ -3649,12 +3649,12 @@
         <v>315621195</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>170</v>
       </c>
       <c r="B113" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C113" t="s">
         <v>4</v>
@@ -3663,12 +3663,12 @@
         <v>315621244</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>170</v>
       </c>
       <c r="B114" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C114" t="s">
         <v>4</v>
@@ -3677,12 +3677,12 @@
         <v>315621614</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>170</v>
       </c>
       <c r="B115" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C115" t="s">
         <v>4</v>
@@ -3691,12 +3691,12 @@
         <v>315621765</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>170</v>
       </c>
       <c r="B116" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C116" t="s">
         <v>4</v>
@@ -3705,12 +3705,12 @@
         <v>315621824</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>170</v>
       </c>
       <c r="B117" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C117" t="s">
         <v>4</v>
@@ -3719,12 +3719,12 @@
         <v>315621940</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>170</v>
       </c>
       <c r="B118" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C118" t="s">
         <v>4</v>
@@ -3733,12 +3733,12 @@
         <v>315622001</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>170</v>
       </c>
       <c r="B119" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C119" t="s">
         <v>4</v>
@@ -3747,12 +3747,12 @@
         <v>315622082</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>170</v>
       </c>
       <c r="B120" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C120" t="s">
         <v>4</v>
@@ -3761,12 +3761,12 @@
         <v>315622153</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>170</v>
       </c>
       <c r="B121" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C121" t="s">
         <v>4</v>
@@ -3775,12 +3775,12 @@
         <v>315622311</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>170</v>
       </c>
       <c r="B122" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C122" t="s">
         <v>4</v>
@@ -3789,12 +3789,12 @@
         <v>315622362</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>170</v>
       </c>
       <c r="B123" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C123" t="s">
         <v>4</v>
@@ -3803,12 +3803,12 @@
         <v>315622475</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>170</v>
       </c>
       <c r="B124" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C124" t="s">
         <v>4</v>
@@ -3817,12 +3817,12 @@
         <v>315622623</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>170</v>
       </c>
       <c r="B125" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C125" t="s">
         <v>4</v>
@@ -3831,12 +3831,12 @@
         <v>315622632</v>
       </c>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>170</v>
       </c>
       <c r="B126" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C126" t="s">
         <v>4</v>
@@ -3845,12 +3845,12 @@
         <v>315622690</v>
       </c>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>170</v>
       </c>
       <c r="B127" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C127" t="s">
         <v>4</v>
@@ -3859,12 +3859,12 @@
         <v>315622844</v>
       </c>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>170</v>
       </c>
       <c r="B128" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C128" t="s">
         <v>4</v>
@@ -3873,12 +3873,12 @@
         <v>315622885</v>
       </c>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>170</v>
       </c>
       <c r="B129" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C129" t="s">
         <v>4</v>
@@ -3887,12 +3887,12 @@
         <v>315622914</v>
       </c>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>170</v>
       </c>
       <c r="B130" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C130" t="s">
         <v>4</v>
@@ -3901,12 +3901,12 @@
         <v>315622975</v>
       </c>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>170</v>
       </c>
       <c r="B131" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C131" t="s">
         <v>4</v>
@@ -3915,12 +3915,12 @@
         <v>315623094</v>
       </c>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>170</v>
       </c>
       <c r="B132" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C132" t="s">
         <v>4</v>
@@ -3929,12 +3929,12 @@
         <v>315623233</v>
       </c>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>170</v>
       </c>
       <c r="B133" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C133" t="s">
         <v>4</v>
@@ -3943,12 +3943,12 @@
         <v>315623390</v>
       </c>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>170</v>
       </c>
       <c r="B134" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C134" t="s">
         <v>4</v>
@@ -3957,12 +3957,12 @@
         <v>315623449</v>
       </c>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>170</v>
       </c>
       <c r="B135" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C135" t="s">
         <v>4</v>
@@ -3971,12 +3971,12 @@
         <v>315623503</v>
       </c>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>170</v>
       </c>
       <c r="B136" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C136" t="s">
         <v>4</v>
@@ -3985,12 +3985,12 @@
         <v>315623606</v>
       </c>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>170</v>
       </c>
       <c r="B137" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C137" t="s">
         <v>4</v>
@@ -3999,12 +3999,12 @@
         <v>315623908</v>
       </c>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>170</v>
       </c>
       <c r="B138" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C138" t="s">
         <v>4</v>
@@ -4013,12 +4013,12 @@
         <v>315623920</v>
       </c>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>170</v>
       </c>
       <c r="B139" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C139" t="s">
         <v>4</v>
@@ -4027,12 +4027,12 @@
         <v>315623952</v>
       </c>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>170</v>
       </c>
       <c r="B140" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C140" t="s">
         <v>4</v>
@@ -4041,12 +4041,12 @@
         <v>315623974</v>
       </c>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>170</v>
       </c>
       <c r="B141" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C141" t="s">
         <v>4</v>
@@ -4055,12 +4055,12 @@
         <v>315624031</v>
       </c>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>170</v>
       </c>
       <c r="B142" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C142" t="s">
         <v>4</v>
@@ -4069,12 +4069,12 @@
         <v>315624126</v>
       </c>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>170</v>
       </c>
       <c r="B143" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C143" t="s">
         <v>4</v>
@@ -4083,12 +4083,12 @@
         <v>315624182</v>
       </c>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>170</v>
       </c>
       <c r="B144" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C144" t="s">
         <v>4</v>
@@ -4097,12 +4097,12 @@
         <v>315624194</v>
       </c>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>170</v>
       </c>
       <c r="B145" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C145" t="s">
         <v>4</v>
@@ -4111,12 +4111,12 @@
         <v>315624295</v>
       </c>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>170</v>
       </c>
       <c r="B146" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C146" t="s">
         <v>4</v>
@@ -4125,12 +4125,12 @@
         <v>315624333</v>
       </c>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>170</v>
       </c>
       <c r="B147" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C147" t="s">
         <v>4</v>
@@ -4139,12 +4139,12 @@
         <v>315624441</v>
       </c>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>170</v>
       </c>
       <c r="B148" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C148" t="s">
         <v>4</v>
@@ -4153,12 +4153,12 @@
         <v>315624496</v>
       </c>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>170</v>
       </c>
       <c r="B149" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C149" t="s">
         <v>4</v>
@@ -4167,12 +4167,12 @@
         <v>315624544</v>
       </c>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>170</v>
       </c>
       <c r="B150" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C150" t="s">
         <v>4</v>
@@ -4181,12 +4181,12 @@
         <v>315624659</v>
       </c>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>170</v>
       </c>
       <c r="B151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C151" t="s">
         <v>4</v>
@@ -4195,12 +4195,12 @@
         <v>315624681</v>
       </c>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>170</v>
       </c>
       <c r="B152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C152" t="s">
         <v>4</v>
@@ -4209,12 +4209,12 @@
         <v>315624737</v>
       </c>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>170</v>
       </c>
       <c r="B153" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C153" t="s">
         <v>4</v>
@@ -4223,12 +4223,12 @@
         <v>315624770</v>
       </c>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>170</v>
       </c>
       <c r="B154" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C154" t="s">
         <v>4</v>
@@ -4237,12 +4237,12 @@
         <v>315624814</v>
       </c>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>170</v>
       </c>
       <c r="B155" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C155" t="s">
         <v>4</v>
@@ -4251,12 +4251,12 @@
         <v>315624873</v>
       </c>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>170</v>
       </c>
       <c r="B156" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C156" t="s">
         <v>4</v>
@@ -4265,12 +4265,12 @@
         <v>315624992</v>
       </c>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>170</v>
       </c>
       <c r="B157" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C157" t="s">
         <v>4</v>
@@ -4279,12 +4279,12 @@
         <v>315625130</v>
       </c>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>170</v>
       </c>
       <c r="B158" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C158" t="s">
         <v>4</v>
@@ -4293,12 +4293,12 @@
         <v>315625188</v>
       </c>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>170</v>
       </c>
       <c r="B159" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C159" t="s">
         <v>4</v>
@@ -4307,12 +4307,12 @@
         <v>315625202</v>
       </c>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>170</v>
       </c>
       <c r="B160" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C160" t="s">
         <v>4</v>
@@ -4321,12 +4321,12 @@
         <v>315625263</v>
       </c>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>170</v>
       </c>
       <c r="B161" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C161" t="s">
         <v>4</v>
@@ -4335,12 +4335,12 @@
         <v>315625534</v>
       </c>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>170</v>
       </c>
       <c r="B162" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C162" t="s">
         <v>4</v>
@@ -4349,12 +4349,12 @@
         <v>315625693</v>
       </c>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>170</v>
       </c>
       <c r="B163" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C163" t="s">
         <v>4</v>
@@ -4363,12 +4363,12 @@
         <v>315625793</v>
       </c>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C164" t="s">
         <v>4</v>
@@ -4377,12 +4377,12 @@
         <v>315625821</v>
       </c>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>170</v>
       </c>
       <c r="B165" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C165" t="s">
         <v>4</v>
@@ -4391,12 +4391,12 @@
         <v>315625882</v>
       </c>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>5</v>
       </c>
       <c r="B166" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C166" t="s">
         <v>4</v>
@@ -4405,12 +4405,12 @@
         <v>315625956</v>
       </c>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C167" t="s">
         <v>4</v>
@@ -4419,12 +4419,12 @@
         <v>315625977</v>
       </c>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C168" t="s">
         <v>4</v>
@@ -4433,12 +4433,12 @@
         <v>315626204</v>
       </c>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C169" t="s">
         <v>4</v>
@@ -4447,12 +4447,12 @@
         <v>315626393</v>
       </c>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C170" t="s">
         <v>4</v>
@@ -4461,12 +4461,12 @@
         <v>315626505</v>
       </c>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C171" t="s">
         <v>4</v>
@@ -4475,12 +4475,12 @@
         <v>315626523</v>
       </c>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C172" t="s">
         <v>4</v>
@@ -4489,12 +4489,12 @@
         <v>315626556</v>
       </c>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>170</v>
       </c>
       <c r="B173" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C173" t="s">
         <v>4</v>
@@ -4503,12 +4503,12 @@
         <v>315626562</v>
       </c>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>170</v>
       </c>
       <c r="B174" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C174" t="s">
         <v>4</v>
@@ -4517,12 +4517,12 @@
         <v>315626669</v>
       </c>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>170</v>
       </c>
       <c r="B175" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C175" t="s">
         <v>4</v>
@@ -4531,12 +4531,12 @@
         <v>315626747</v>
       </c>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>170</v>
       </c>
       <c r="B176" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C176" t="s">
         <v>4</v>
@@ -4545,12 +4545,12 @@
         <v>315626804</v>
       </c>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>170</v>
       </c>
       <c r="B177" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C177" t="s">
         <v>4</v>
@@ -4559,12 +4559,12 @@
         <v>315626802</v>
       </c>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>170</v>
       </c>
       <c r="B178" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C178" t="s">
         <v>4</v>
@@ -4573,12 +4573,12 @@
         <v>315626955</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>170</v>
       </c>
       <c r="B179" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C179" t="s">
         <v>4</v>
@@ -4587,12 +4587,12 @@
         <v>315627001</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>170</v>
       </c>
       <c r="B180" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C180" t="s">
         <v>4</v>
@@ -4601,12 +4601,12 @@
         <v>315627024</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>170</v>
       </c>
       <c r="B181" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C181" t="s">
         <v>4</v>
@@ -4615,12 +4615,12 @@
         <v>315627035</v>
       </c>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>170</v>
       </c>
       <c r="B182" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C182" t="s">
         <v>4</v>
@@ -4629,12 +4629,12 @@
         <v>315627118</v>
       </c>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>170</v>
       </c>
       <c r="B183" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C183" t="s">
         <v>4</v>
@@ -4643,12 +4643,12 @@
         <v>315627240</v>
       </c>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>170</v>
       </c>
       <c r="B184" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C184" t="s">
         <v>4</v>
@@ -4657,12 +4657,12 @@
         <v>315627352</v>
       </c>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>170</v>
       </c>
       <c r="B185" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C185" t="s">
         <v>4</v>
@@ -4671,12 +4671,12 @@
         <v>315627433</v>
       </c>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>170</v>
       </c>
       <c r="B186" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C186" t="s">
         <v>4</v>
@@ -4685,12 +4685,12 @@
         <v>315627519</v>
       </c>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>170</v>
       </c>
       <c r="B187" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C187" t="s">
         <v>4</v>
@@ -4699,12 +4699,12 @@
         <v>315627579</v>
       </c>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>170</v>
       </c>
       <c r="B188" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C188" t="s">
         <v>4</v>
@@ -4713,12 +4713,12 @@
         <v>315627687</v>
       </c>
     </row>
-    <row r="189" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>170</v>
       </c>
       <c r="B189" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C189" t="s">
         <v>4</v>
@@ -4727,12 +4727,12 @@
         <v>315627702</v>
       </c>
     </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>170</v>
       </c>
       <c r="B190" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C190" t="s">
         <v>4</v>
@@ -4741,12 +4741,12 @@
         <v>315627780</v>
       </c>
     </row>
-    <row r="191" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>170</v>
       </c>
       <c r="B191" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C191" t="s">
         <v>4</v>
@@ -4755,12 +4755,12 @@
         <v>315627873</v>
       </c>
     </row>
-    <row r="192" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>170</v>
       </c>
       <c r="B192" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C192" t="s">
         <v>4</v>
@@ -4769,12 +4769,12 @@
         <v>315627931</v>
       </c>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>170</v>
       </c>
       <c r="B193" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C193" t="s">
         <v>4</v>
@@ -4783,12 +4783,12 @@
         <v>315627951</v>
       </c>
     </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>170</v>
       </c>
       <c r="B194" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C194" t="s">
         <v>4</v>
@@ -4797,12 +4797,12 @@
         <v>315628044</v>
       </c>
     </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>170</v>
       </c>
       <c r="B195" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C195" t="s">
         <v>4</v>
@@ -4811,12 +4811,12 @@
         <v>315628072</v>
       </c>
     </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>170</v>
       </c>
       <c r="B196" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C196" t="s">
         <v>4</v>
@@ -4825,12 +4825,12 @@
         <v>315628098</v>
       </c>
     </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>170</v>
       </c>
       <c r="B197" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C197" t="s">
         <v>4</v>
@@ -4839,12 +4839,12 @@
         <v>315628220</v>
       </c>
     </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>170</v>
       </c>
       <c r="B198" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C198" t="s">
         <v>4</v>
@@ -4853,12 +4853,12 @@
         <v>315628289</v>
       </c>
     </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>170</v>
       </c>
       <c r="B199" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C199" t="s">
         <v>4</v>
@@ -4867,12 +4867,12 @@
         <v>315628353</v>
       </c>
     </row>
-    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>170</v>
       </c>
       <c r="B200" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C200" t="s">
         <v>4</v>
@@ -4881,12 +4881,12 @@
         <v>315628366</v>
       </c>
     </row>
-    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>170</v>
       </c>
       <c r="B201" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C201" t="s">
         <v>4</v>
@@ -4895,12 +4895,12 @@
         <v>315628545</v>
       </c>
     </row>
-    <row r="202" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>170</v>
       </c>
       <c r="B202" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C202" t="s">
         <v>4</v>
@@ -4909,12 +4909,12 @@
         <v>315628673</v>
       </c>
     </row>
-    <row r="203" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>170</v>
       </c>
       <c r="B203" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C203" t="s">
         <v>4</v>
@@ -4923,12 +4923,12 @@
         <v>315628695</v>
       </c>
     </row>
-    <row r="204" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>170</v>
       </c>
       <c r="B204" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C204" t="s">
         <v>4</v>
@@ -4937,12 +4937,12 @@
         <v>315628760</v>
       </c>
     </row>
-    <row r="205" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>170</v>
       </c>
       <c r="B205" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C205" t="s">
         <v>4</v>
@@ -4951,12 +4951,12 @@
         <v>315628785</v>
       </c>
     </row>
-    <row r="206" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>170</v>
       </c>
       <c r="B206" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C206" t="s">
         <v>4</v>
@@ -4965,12 +4965,12 @@
         <v>315629170</v>
       </c>
     </row>
-    <row r="207" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>170</v>
       </c>
       <c r="B207" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C207" t="s">
         <v>4</v>
@@ -4979,12 +4979,12 @@
         <v>315629173</v>
       </c>
     </row>
-    <row r="208" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>170</v>
       </c>
       <c r="B208" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C208" t="s">
         <v>4</v>
@@ -4993,12 +4993,12 @@
         <v>315629227</v>
       </c>
     </row>
-    <row r="209" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>170</v>
       </c>
       <c r="B209" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C209" t="s">
         <v>4</v>
@@ -5007,12 +5007,12 @@
         <v>315629463</v>
       </c>
     </row>
-    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>170</v>
       </c>
       <c r="B210" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C210" t="s">
         <v>4</v>
@@ -5021,12 +5021,12 @@
         <v>315629554</v>
       </c>
     </row>
-    <row r="211" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>170</v>
       </c>
       <c r="B211" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C211" t="s">
         <v>4</v>
@@ -5035,12 +5035,12 @@
         <v>315629752</v>
       </c>
     </row>
-    <row r="212" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>170</v>
       </c>
       <c r="B212" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C212" t="s">
         <v>4</v>
@@ -5049,12 +5049,12 @@
         <v>315629853</v>
       </c>
     </row>
-    <row r="213" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>170</v>
       </c>
       <c r="B213" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C213" t="s">
         <v>4</v>
@@ -5063,12 +5063,12 @@
         <v>315629906</v>
       </c>
     </row>
-    <row r="214" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>170</v>
       </c>
       <c r="B214" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C214" t="s">
         <v>4</v>
@@ -5077,12 +5077,12 @@
         <v>315629907</v>
       </c>
     </row>
-    <row r="215" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>170</v>
       </c>
       <c r="B215" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C215" t="s">
         <v>4</v>
@@ -5091,12 +5091,12 @@
         <v>315629989</v>
       </c>
     </row>
-    <row r="216" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>170</v>
       </c>
       <c r="B216" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C216" t="s">
         <v>4</v>
@@ -5105,12 +5105,12 @@
         <v>315630026</v>
       </c>
     </row>
-    <row r="217" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>170</v>
       </c>
       <c r="B217" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C217" t="s">
         <v>4</v>
@@ -5119,12 +5119,12 @@
         <v>315630034</v>
       </c>
     </row>
-    <row r="218" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>170</v>
       </c>
       <c r="B218" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C218" t="s">
         <v>4</v>
@@ -5133,12 +5133,12 @@
         <v>315630087</v>
       </c>
     </row>
-    <row r="219" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>170</v>
       </c>
       <c r="B219" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C219" t="s">
         <v>4</v>
@@ -5147,12 +5147,12 @@
         <v>315630123</v>
       </c>
     </row>
-    <row r="220" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>170</v>
       </c>
       <c r="B220" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C220" t="s">
         <v>4</v>
@@ -5161,12 +5161,12 @@
         <v>315630125</v>
       </c>
     </row>
-    <row r="221" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>170</v>
       </c>
       <c r="B221" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C221" t="s">
         <v>4</v>
@@ -5175,12 +5175,12 @@
         <v>315630136</v>
       </c>
     </row>
-    <row r="222" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>170</v>
       </c>
       <c r="B222" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C222" t="s">
         <v>4</v>
@@ -5189,12 +5189,12 @@
         <v>315630232</v>
       </c>
     </row>
-    <row r="223" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>170</v>
       </c>
       <c r="B223" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C223" t="s">
         <v>4</v>
@@ -5203,12 +5203,12 @@
         <v>315630677</v>
       </c>
     </row>
-    <row r="224" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>170</v>
       </c>
       <c r="B224" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C224" t="s">
         <v>4</v>
@@ -5217,12 +5217,12 @@
         <v>315630750</v>
       </c>
     </row>
-    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>170</v>
       </c>
       <c r="B225" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C225" t="s">
         <v>4</v>
@@ -5231,12 +5231,12 @@
         <v>315630982</v>
       </c>
     </row>
-    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>170</v>
       </c>
       <c r="B226" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C226" t="s">
         <v>4</v>
@@ -5245,12 +5245,12 @@
         <v>315631172</v>
       </c>
     </row>
-    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>170</v>
       </c>
       <c r="B227" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C227" t="s">
         <v>4</v>
@@ -5259,12 +5259,12 @@
         <v>315631472</v>
       </c>
     </row>
-    <row r="228" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>170</v>
       </c>
       <c r="B228" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C228" t="s">
         <v>4</v>
@@ -5273,12 +5273,12 @@
         <v>315631513</v>
       </c>
     </row>
-    <row r="229" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>170</v>
       </c>
       <c r="B229" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C229" t="s">
         <v>4</v>
@@ -5287,12 +5287,12 @@
         <v>315631654</v>
       </c>
     </row>
-    <row r="230" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>170</v>
       </c>
       <c r="B230" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C230" t="s">
         <v>4</v>
@@ -5301,12 +5301,12 @@
         <v>315631717</v>
       </c>
     </row>
-    <row r="231" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>170</v>
       </c>
       <c r="B231" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C231" t="s">
         <v>4</v>
@@ -5315,12 +5315,12 @@
         <v>315631718</v>
       </c>
     </row>
-    <row r="232" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>170</v>
       </c>
       <c r="B232" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C232" t="s">
         <v>4</v>
@@ -5329,12 +5329,12 @@
         <v>315631730</v>
       </c>
     </row>
-    <row r="233" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>170</v>
       </c>
       <c r="B233" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C233" t="s">
         <v>4</v>
@@ -5343,12 +5343,12 @@
         <v>315631745</v>
       </c>
     </row>
-    <row r="234" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>170</v>
       </c>
       <c r="B234" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C234" t="s">
         <v>4</v>
@@ -5357,12 +5357,12 @@
         <v>315631814</v>
       </c>
     </row>
-    <row r="235" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>170</v>
       </c>
       <c r="B235" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C235" t="s">
         <v>4</v>
@@ -5371,12 +5371,12 @@
         <v>315631876</v>
       </c>
     </row>
-    <row r="236" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>170</v>
       </c>
       <c r="B236" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C236" t="s">
         <v>4</v>
@@ -5385,12 +5385,12 @@
         <v>315631913</v>
       </c>
     </row>
-    <row r="237" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>170</v>
       </c>
       <c r="B237" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C237" t="s">
         <v>4</v>
@@ -5399,12 +5399,12 @@
         <v>315631956</v>
       </c>
     </row>
-    <row r="238" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>170</v>
       </c>
       <c r="B238" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C238" t="s">
         <v>4</v>
@@ -5413,12 +5413,12 @@
         <v>315631988</v>
       </c>
     </row>
-    <row r="239" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>170</v>
       </c>
       <c r="B239" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C239" t="s">
         <v>4</v>
@@ -5427,12 +5427,12 @@
         <v>315632001</v>
       </c>
     </row>
-    <row r="240" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>170</v>
       </c>
       <c r="B240" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C240" t="s">
         <v>4</v>
@@ -5441,12 +5441,12 @@
         <v>315632038</v>
       </c>
     </row>
-    <row r="241" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>170</v>
       </c>
       <c r="B241" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C241" t="s">
         <v>4</v>
@@ -5455,12 +5455,12 @@
         <v>315632085</v>
       </c>
     </row>
-    <row r="242" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>170</v>
       </c>
       <c r="B242" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C242" t="s">
         <v>4</v>
@@ -5469,12 +5469,12 @@
         <v>315632256</v>
       </c>
     </row>
-    <row r="243" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>170</v>
       </c>
       <c r="B243" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C243" t="s">
         <v>4</v>
@@ -5483,12 +5483,12 @@
         <v>315632301</v>
       </c>
     </row>
-    <row r="244" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>170</v>
       </c>
       <c r="B244" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C244" t="s">
         <v>4</v>
@@ -5497,12 +5497,12 @@
         <v>315632341</v>
       </c>
     </row>
-    <row r="245" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>170</v>
       </c>
       <c r="B245" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C245" t="s">
         <v>4</v>
@@ -5511,12 +5511,12 @@
         <v>315632380</v>
       </c>
     </row>
-    <row r="246" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>170</v>
       </c>
       <c r="B246" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C246" t="s">
         <v>4</v>
@@ -5525,12 +5525,12 @@
         <v>315632451</v>
       </c>
     </row>
-    <row r="247" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>170</v>
       </c>
       <c r="B247" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C247" t="s">
         <v>4</v>
@@ -5539,12 +5539,12 @@
         <v>315632473</v>
       </c>
     </row>
-    <row r="248" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>170</v>
       </c>
       <c r="B248" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C248" t="s">
         <v>4</v>
@@ -5553,12 +5553,12 @@
         <v>315632594</v>
       </c>
     </row>
-    <row r="249" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>170</v>
       </c>
       <c r="B249" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C249" t="s">
         <v>4</v>
@@ -5567,12 +5567,12 @@
         <v>315632676</v>
       </c>
     </row>
-    <row r="250" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>170</v>
       </c>
       <c r="B250" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C250" t="s">
         <v>4</v>
@@ -5581,12 +5581,12 @@
         <v>315632768</v>
       </c>
     </row>
-    <row r="251" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>170</v>
       </c>
       <c r="B251" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C251" t="s">
         <v>4</v>
@@ -5595,12 +5595,12 @@
         <v>315632898</v>
       </c>
     </row>
-    <row r="252" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>170</v>
       </c>
       <c r="B252" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C252" t="s">
         <v>4</v>
@@ -5609,12 +5609,12 @@
         <v>315633222</v>
       </c>
     </row>
-    <row r="253" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>170</v>
       </c>
       <c r="B253" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C253" t="s">
         <v>4</v>
@@ -5623,12 +5623,12 @@
         <v>315633337</v>
       </c>
     </row>
-    <row r="254" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>170</v>
       </c>
       <c r="B254" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C254" t="s">
         <v>4</v>
@@ -5637,12 +5637,12 @@
         <v>315633412</v>
       </c>
     </row>
-    <row r="255" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>170</v>
       </c>
       <c r="B255" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C255" t="s">
         <v>4</v>
@@ -5651,12 +5651,12 @@
         <v>315633559</v>
       </c>
     </row>
-    <row r="256" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>170</v>
       </c>
       <c r="B256" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C256" t="s">
         <v>4</v>
@@ -5665,12 +5665,12 @@
         <v>315633666</v>
       </c>
     </row>
-    <row r="257" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>170</v>
       </c>
       <c r="B257" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C257" t="s">
         <v>4</v>
@@ -5679,12 +5679,12 @@
         <v>315633739</v>
       </c>
     </row>
-    <row r="258" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>170</v>
       </c>
       <c r="B258" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C258" t="s">
         <v>4</v>
@@ -5693,12 +5693,12 @@
         <v>315633767</v>
       </c>
     </row>
-    <row r="259" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>170</v>
       </c>
       <c r="B259" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C259" t="s">
         <v>4</v>
@@ -5707,12 +5707,12 @@
         <v>315633840</v>
       </c>
     </row>
-    <row r="260" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>170</v>
       </c>
       <c r="B260" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C260" t="s">
         <v>4</v>
@@ -5721,12 +5721,12 @@
         <v>315633876</v>
       </c>
     </row>
-    <row r="261" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>170</v>
       </c>
       <c r="B261" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C261" t="s">
         <v>4</v>
@@ -5735,12 +5735,12 @@
         <v>315633937</v>
       </c>
     </row>
-    <row r="262" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>170</v>
       </c>
       <c r="B262" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C262" t="s">
         <v>4</v>
@@ -5749,12 +5749,12 @@
         <v>315633996</v>
       </c>
     </row>
-    <row r="263" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>170</v>
       </c>
       <c r="B263" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C263" t="s">
         <v>4</v>
@@ -5763,12 +5763,12 @@
         <v>315634052</v>
       </c>
     </row>
-    <row r="264" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>170</v>
       </c>
       <c r="B264" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C264" t="s">
         <v>4</v>
@@ -5777,12 +5777,12 @@
         <v>315634156</v>
       </c>
     </row>
-    <row r="265" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>170</v>
       </c>
       <c r="B265" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C265" t="s">
         <v>4</v>
@@ -5791,12 +5791,12 @@
         <v>315634242</v>
       </c>
     </row>
-    <row r="266" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>170</v>
       </c>
       <c r="B266" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C266" t="s">
         <v>4</v>
@@ -5805,12 +5805,12 @@
         <v>315634316</v>
       </c>
     </row>
-    <row r="267" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>170</v>
       </c>
       <c r="B267" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C267" t="s">
         <v>4</v>
@@ -5819,12 +5819,12 @@
         <v>315634327</v>
       </c>
     </row>
-    <row r="268" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>170</v>
       </c>
       <c r="B268" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C268" t="s">
         <v>4</v>
@@ -5833,12 +5833,12 @@
         <v>315634537</v>
       </c>
     </row>
-    <row r="269" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>170</v>
       </c>
       <c r="B269" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C269" t="s">
         <v>4</v>
@@ -5847,12 +5847,12 @@
         <v>315634605</v>
       </c>
     </row>
-    <row r="270" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>170</v>
       </c>
       <c r="B270" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C270" t="s">
         <v>4</v>
@@ -5861,12 +5861,12 @@
         <v>315634615</v>
       </c>
     </row>
-    <row r="271" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>170</v>
       </c>
       <c r="B271" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C271" t="s">
         <v>4</v>
@@ -5875,12 +5875,12 @@
         <v>315634683</v>
       </c>
     </row>
-    <row r="272" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>170</v>
       </c>
       <c r="B272" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C272" t="s">
         <v>4</v>
@@ -5889,12 +5889,12 @@
         <v>315634781</v>
       </c>
     </row>
-    <row r="273" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>170</v>
       </c>
       <c r="B273" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C273" t="s">
         <v>4</v>
@@ -5903,12 +5903,12 @@
         <v>315634893</v>
       </c>
     </row>
-    <row r="274" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>170</v>
       </c>
       <c r="B274" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C274" t="s">
         <v>4</v>
@@ -5917,12 +5917,12 @@
         <v>315634913</v>
       </c>
     </row>
-    <row r="275" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>170</v>
       </c>
       <c r="B275" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C275" t="s">
         <v>4</v>
@@ -5931,12 +5931,12 @@
         <v>315635118</v>
       </c>
     </row>
-    <row r="276" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>170</v>
       </c>
       <c r="B276" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C276" t="s">
         <v>4</v>
@@ -5945,12 +5945,12 @@
         <v>315635126</v>
       </c>
     </row>
-    <row r="277" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>170</v>
       </c>
       <c r="B277" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C277" t="s">
         <v>4</v>
@@ -5959,12 +5959,12 @@
         <v>315635236</v>
       </c>
     </row>
-    <row r="278" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>170</v>
       </c>
       <c r="B278" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C278" t="s">
         <v>4</v>
@@ -5973,12 +5973,12 @@
         <v>315635248</v>
       </c>
     </row>
-    <row r="279" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>170</v>
       </c>
       <c r="B279" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C279" t="s">
         <v>4</v>
@@ -5987,12 +5987,12 @@
         <v>315635251</v>
       </c>
     </row>
-    <row r="280" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>170</v>
       </c>
       <c r="B280" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C280" t="s">
         <v>4</v>
@@ -6001,12 +6001,12 @@
         <v>315635310</v>
       </c>
     </row>
-    <row r="281" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>170</v>
       </c>
       <c r="B281" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C281" t="s">
         <v>4</v>
@@ -6015,12 +6015,12 @@
         <v>315635403</v>
       </c>
     </row>
-    <row r="282" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>170</v>
       </c>
       <c r="B282" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C282" t="s">
         <v>4</v>
@@ -6030,8 +6030,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <autoFilter ref="A1:A282" xr:uid="{E532ABCF-DAB7-44D4-A3CE-3A31591BDD05}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -6039,8 +6040,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91561C24-D1D2-4B16-8C0B-8E7D28B8B97D}">
-  <dimension ref="A1:E272"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91561C24-D1D2-4B16-8C0B-8E7D28B8B97D}">
+  <dimension ref="A1:D272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F269" sqref="F269"/>
@@ -6048,10 +6049,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -7424,13 +7425,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34221211-C528-4B9A-8EB9-3F2A8222C832}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34221211-C528-4B9A-8EB9-3F2A8222C832}">
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A8"/>
@@ -7438,7 +7439,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -7482,25 +7483,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72837C1-A250-4429-940A-47740C3A20D1}">
-  <dimension ref="A1:E272"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72837C1-A250-4429-940A-47740C3A20D1}">
+  <dimension ref="A1:F272"/>
   <sheetViews>
-    <sheetView topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D272"/>
+    <sheetView topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="35.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -11306,7 +11307,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:A272" xr:uid="{E72837C1-A250-4429-940A-47740C3A20D1}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -11314,23 +11316,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="acacf6df-7f2b-4e22-b0f3-7512e3e41353" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4BE33D85B624C499A4F208BDFBE25E3" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cd1df8248d0147635b68617ab35c068">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a46146ca-227b-4078-8d7d-54f809a0c7c3" xmlns:ns4="acacf6df-7f2b-4e22-b0f3-7512e3e41353" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="644d45e4cbba221d591cefd09b775554" ns3:_="" ns4:_="">
     <xsd:import namespace="a46146ca-227b-4078-8d7d-54f809a0c7c3"/>
@@ -11555,32 +11540,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35F3410C-C74A-41CF-8658-138963324197}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="acacf6df-7f2b-4e22-b0f3-7512e3e41353"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a46146ca-227b-4078-8d7d-54f809a0c7c3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92B33282-DA3D-42FE-BA2A-24C428B7C579}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="acacf6df-7f2b-4e22-b0f3-7512e3e41353" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9EA28B5-2EA2-4B32-A392-7713D681EE24}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11597,4 +11574,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92B33282-DA3D-42FE-BA2A-24C428B7C579}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35F3410C-C74A-41CF-8658-138963324197}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="acacf6df-7f2b-4e22-b0f3-7512e3e41353"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a46146ca-227b-4078-8d7d-54f809a0c7c3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/KatalonData/VoidCreditThem.xlsx
+++ b/KatalonData/VoidCreditThem.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F088B5E-C470-45D6-8F3C-1E616170AAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB286DCE-F232-43F1-979B-F1C81F365AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1545" windowWidth="24525" windowHeight="14010" xr2:uid="{68A01D60-C0DA-4B1C-A077-755B50774099}"/>
+    <workbookView xWindow="-26500" yWindow="3760" windowWidth="23040" windowHeight="12200" activeTab="1" xr2:uid="{68A01D60-C0DA-4B1C-A077-755B50774099}"/>
   </bookViews>
   <sheets>
     <sheet name="CreditThem" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="VoidThem" sheetId="2" r:id="rId4"/>
+    <sheet name="CreditFCG" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="VoidThem" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreditThem!$A$1:$A$282</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">VoidThem!$A$1:$A$272</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">VoidThem!$A$1:$A$272</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="623">
   <si>
     <t>TransactionID</t>
   </si>
@@ -1720,6 +1721,198 @@
   </si>
   <si>
     <t>Thu Jan 18 19:32:23 EST 2024</t>
+  </si>
+  <si>
+    <t>322991949</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:29:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:41:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:41:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:42:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:42:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:42:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:43:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:43:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:43:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:45:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:45:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:46:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:46:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:46:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:47:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:47:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:47:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:48:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:48:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:48:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:49:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:49:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:49:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:50:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:50:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:50:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:51:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:51:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:51:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:52:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:52:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:52:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:53:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:53:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:53:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:54:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:54:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:54:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:55:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:55:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:55:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:56:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:56:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:56:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:57:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:57:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:57:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:58:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:58:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:58:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:59:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:59:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 17:59:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 18:00:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 18:00:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 18:00:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 18:01:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 18:01:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 18:01:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 18:02:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Tue Jul 09 18:02:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>322991884</t>
+  </si>
+  <si>
+    <t>322991924</t>
   </si>
 </sst>
 </file>
@@ -1735,12 +1928,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1770,7 +1969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1782,6 +1981,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1800,9 +2002,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1840,7 +2042,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1946,7 +2148,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2088,7 +2290,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2098,8 +2300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E532ABCF-DAB7-44D4-A3CE-3A31591BDD05}">
   <dimension ref="A1:F282"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6040,6 +6242,713 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFDD0FF-9C7F-42B8-8C7C-70B03C87DED6}">
+  <dimension ref="A1:D62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection sqref="A1:D62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.85546875" style="6" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="D3" s="6">
+        <v>322991947</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="D4" s="6">
+        <v>322991937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="D5" s="6">
+        <v>322991933</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="D6" s="6">
+        <v>322991929</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="D8" s="6">
+        <v>322991914</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="D9" s="6">
+        <v>322991910</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="D10" s="6">
+        <v>322991907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="D11" s="6">
+        <v>322991902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D12" s="6">
+        <v>322991900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="D13" s="6">
+        <v>322991895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D14" s="6">
+        <v>322991893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="D16" s="6">
+        <v>322991875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="D17" s="6">
+        <v>322991874</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="D18" s="6">
+        <v>322991871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="D19" s="6">
+        <v>322991859</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="D20" s="6">
+        <v>322991851</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="D21" s="6">
+        <v>322991846</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="D22" s="6">
+        <v>322991833</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="D23" s="6">
+        <v>322991830</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="D24" s="6">
+        <v>322991824</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="D25" s="6">
+        <v>322991818</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="D26" s="6">
+        <v>322991813</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="D27" s="6">
+        <v>322991805</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="D28" s="6">
+        <v>322991802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="D29" s="6">
+        <v>322991794</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="D30" s="6">
+        <v>322991782</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="D31" s="6">
+        <v>322991775</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="D32" s="6">
+        <v>322991774</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="D33" s="6">
+        <v>322991772</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="D34" s="6">
+        <v>322991765</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="D35" s="6">
+        <v>322991760</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="D36" s="6">
+        <v>322991758</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="D37" s="6">
+        <v>322991755</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="D38" s="6">
+        <v>322991744</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="D39" s="6">
+        <v>322991743</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="D40" s="6">
+        <v>322991740</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="D41" s="6">
+        <v>322991728</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="D42" s="6">
+        <v>322991727</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="D43" s="6">
+        <v>322991726</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="D44" s="6">
+        <v>322991721</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="D45" s="6">
+        <v>322991711</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="D46" s="6">
+        <v>322991710</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="D47" s="6">
+        <v>322991700</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="D48" s="6">
+        <v>322991681</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="D49" s="6">
+        <v>322991651</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="D50" s="6">
+        <v>322991646</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="D51" s="6">
+        <v>322991622</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="D52" s="6">
+        <v>322991611</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="D53" s="6">
+        <v>322991605</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="D54" s="6">
+        <v>322991603</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="D55" s="6">
+        <v>322991598</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="D56" s="6">
+        <v>322991585</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="D57" s="6">
+        <v>322991563</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="D58" s="6">
+        <v>322991561</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="D59" s="6">
+        <v>322915933</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="D60" s="6">
+        <v>322915000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="D61" s="6">
+        <v>322898212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="D62" s="6">
+        <v>322840887</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91561C24-D1D2-4B16-8C0B-8E7D28B8B97D}">
   <dimension ref="A1:D272"/>
   <sheetViews>
@@ -7429,7 +8338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34221211-C528-4B9A-8EB9-3F2A8222C832}">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -7487,7 +8396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72837C1-A250-4429-940A-47740C3A20D1}">
   <dimension ref="A1:F272"/>
   <sheetViews>
@@ -11316,6 +12225,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="acacf6df-7f2b-4e22-b0f3-7512e3e41353" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4BE33D85B624C499A4F208BDFBE25E3" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cd1df8248d0147635b68617ab35c068">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a46146ca-227b-4078-8d7d-54f809a0c7c3" xmlns:ns4="acacf6df-7f2b-4e22-b0f3-7512e3e41353" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="644d45e4cbba221d591cefd09b775554" ns3:_="" ns4:_="">
     <xsd:import namespace="a46146ca-227b-4078-8d7d-54f809a0c7c3"/>
@@ -11540,7 +12457,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -11549,15 +12466,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="acacf6df-7f2b-4e22-b0f3-7512e3e41353" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35F3410C-C74A-41CF-8658-138963324197}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="acacf6df-7f2b-4e22-b0f3-7512e3e41353"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a46146ca-227b-4078-8d7d-54f809a0c7c3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9EA28B5-2EA2-4B32-A392-7713D681EE24}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11576,27 +12502,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92B33282-DA3D-42FE-BA2A-24C428B7C579}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35F3410C-C74A-41CF-8658-138963324197}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="acacf6df-7f2b-4e22-b0f3-7512e3e41353"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a46146ca-227b-4078-8d7d-54f809a0c7c3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/KatalonData/VoidCreditThem.xlsx
+++ b/KatalonData/VoidCreditThem.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{520BCD57-9E21-46F1-98D6-34F5D24C2BA9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{40A719D8-C6DB-4C43-BAFC-94F374887987}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="4" windowHeight="12690" windowWidth="25710" xWindow="3255" xr2:uid="{68A01D60-C0DA-4B1C-A077-755B50774099}" yWindow="2355"/>
+    <workbookView activeTab="4" windowHeight="14580" windowWidth="19065" xWindow="5175" xr2:uid="{68A01D60-C0DA-4B1C-A077-755B50774099}" yWindow="750"/>
   </bookViews>
   <sheets>
     <sheet name="CreditThem" r:id="rId1" sheetId="1"/>
     <sheet name="CreditFCG" r:id="rId2" sheetId="5"/>
     <sheet name="Sheet2" r:id="rId3" sheetId="4"/>
     <sheet name="Sheet1" r:id="rId4" sheetId="3"/>
-    <sheet name="VoidThem" r:id="rId5" sheetId="2"/>
+    <sheet name="Marina" r:id="rId5" sheetId="6"/>
+    <sheet name="VoidThem" r:id="rId6" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">CreditThem!$A$1:$A$282</definedName>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">VoidThem!$A$1:$A$272</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">VoidThem!$A$1:$A$272</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11411" uniqueCount="4240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12398" uniqueCount="4578">
   <si>
     <t>TransactionID</t>
   </si>
@@ -12472,298 +12473,1312 @@
     <t>Thu Oct 10 01:21:27 EDT 2024</t>
   </si>
   <si>
+    <t>Thu Oct 10 01:40:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:41:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:41:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:41:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:41:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:42:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:42:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:42:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:42:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:43:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:43:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:43:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:44:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:44:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:44:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:44:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:44:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:45:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:45:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:45:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:46:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:46:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:46:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:46:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:46:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:47:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:47:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:47:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:47:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:48:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:48:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:48:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:48:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:49:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:49:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:49:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:49:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:49:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:50:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:50:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:50:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:50:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:51:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:51:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:51:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:51:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:51:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:51:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:52:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:52:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:52:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:52:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:53:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:53:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:53:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:53:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:53:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:54:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:54:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:54:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:54:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:54:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:55:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:55:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:55:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:55:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:55:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:56:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:56:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:56:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:56:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:56:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:57:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:57:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:57:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:57:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:57:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:57:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:58:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:58:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:58:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:58:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:59:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:59:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:59:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:59:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:59:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 01:59:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 02:00:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 02:00:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 02:00:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 02:00:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 02:01:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 02:01:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 02:01:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 02:01:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 02:02:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>ParentTranxID</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>b0c430ad</t>
+  </si>
+  <si>
+    <t>ca263256</t>
+  </si>
+  <si>
+    <t>5b4fe569</t>
+  </si>
+  <si>
+    <t>18f13965</t>
+  </si>
+  <si>
+    <t>5422e55d</t>
+  </si>
+  <si>
+    <t>7e0f90a4</t>
+  </si>
+  <si>
+    <t>9ef3e53c</t>
+  </si>
+  <si>
+    <t>23615e03</t>
+  </si>
+  <si>
+    <t>22f2c2c3</t>
+  </si>
+  <si>
+    <t>2dccb89c</t>
+  </si>
+  <si>
+    <t>f3f78435</t>
+  </si>
+  <si>
+    <t>7df94683</t>
+  </si>
+  <si>
+    <t>3e494508</t>
+  </si>
+  <si>
+    <t>b6f6b9fe</t>
+  </si>
+  <si>
+    <t>ff6abea0</t>
+  </si>
+  <si>
+    <t>7a917365</t>
+  </si>
+  <si>
+    <t>d8847b1d</t>
+  </si>
+  <si>
+    <t>bde65306</t>
+  </si>
+  <si>
+    <t>9e3a3434</t>
+  </si>
+  <si>
+    <t>2440f9e8</t>
+  </si>
+  <si>
+    <t>d7132a20</t>
+  </si>
+  <si>
+    <t>d6c0f74a</t>
+  </si>
+  <si>
+    <t>d511ea21</t>
+  </si>
+  <si>
+    <t>626176fa</t>
+  </si>
+  <si>
+    <t>4d39f939</t>
+  </si>
+  <si>
+    <t>0c84c3db</t>
+  </si>
+  <si>
+    <t>7fa13ed3</t>
+  </si>
+  <si>
+    <t>ca55d88d</t>
+  </si>
+  <si>
+    <t>538a9142</t>
+  </si>
+  <si>
+    <t>361e76e0</t>
+  </si>
+  <si>
+    <t>3143c781</t>
+  </si>
+  <si>
+    <t>b60dbd6b</t>
+  </si>
+  <si>
+    <t>b346cc32</t>
+  </si>
+  <si>
+    <t>2175bfbf</t>
+  </si>
+  <si>
+    <t>784dd02d</t>
+  </si>
+  <si>
+    <t>c12d36c8</t>
+  </si>
+  <si>
+    <t>681b54f8</t>
+  </si>
+  <si>
+    <t>ef2b803e</t>
+  </si>
+  <si>
+    <t>5c571efd</t>
+  </si>
+  <si>
+    <t>15843cee</t>
+  </si>
+  <si>
+    <t>bbf24c9c</t>
+  </si>
+  <si>
+    <t>d685b2cb</t>
+  </si>
+  <si>
+    <t>a9a25047</t>
+  </si>
+  <si>
+    <t>4f6360f1</t>
+  </si>
+  <si>
+    <t>a6888ba7</t>
+  </si>
+  <si>
+    <t>e2abc87d</t>
+  </si>
+  <si>
+    <t>db4c91e5</t>
+  </si>
+  <si>
+    <t>0feed6cf</t>
+  </si>
+  <si>
+    <t>d834b79f</t>
+  </si>
+  <si>
+    <t>dc19ed18</t>
+  </si>
+  <si>
+    <t>02134322</t>
+  </si>
+  <si>
+    <t>2e44117e</t>
+  </si>
+  <si>
+    <t>2fd7c5b0</t>
+  </si>
+  <si>
+    <t>39e94af3</t>
+  </si>
+  <si>
+    <t>e077a7ce</t>
+  </si>
+  <si>
+    <t>310e96ef</t>
+  </si>
+  <si>
+    <t>c36e7f87</t>
+  </si>
+  <si>
+    <t>bdb0c15d</t>
+  </si>
+  <si>
+    <t>cfa92ad7</t>
+  </si>
+  <si>
+    <t>6d10a886</t>
+  </si>
+  <si>
+    <t>8e1eb3c9</t>
+  </si>
+  <si>
+    <t>297d6dcc</t>
+  </si>
+  <si>
+    <t>735246e0</t>
+  </si>
+  <si>
+    <t>147281f0</t>
+  </si>
+  <si>
+    <t>93ac5f4b</t>
+  </si>
+  <si>
+    <t>923c8453</t>
+  </si>
+  <si>
+    <t>72d2090a</t>
+  </si>
+  <si>
+    <t>cf01efc1</t>
+  </si>
+  <si>
+    <t>92591f9d</t>
+  </si>
+  <si>
+    <t>50214d30</t>
+  </si>
+  <si>
+    <t>30e58c83</t>
+  </si>
+  <si>
+    <t>fb260cd9</t>
+  </si>
+  <si>
+    <t>2515258c</t>
+  </si>
+  <si>
+    <t>deb4c82c</t>
+  </si>
+  <si>
+    <t>b9d2aab1</t>
+  </si>
+  <si>
+    <t>667e3f4f</t>
+  </si>
+  <si>
+    <t>7e5c3e93</t>
+  </si>
+  <si>
+    <t>31a2f354</t>
+  </si>
+  <si>
+    <t>56dff36b</t>
+  </si>
+  <si>
+    <t>81578aff</t>
+  </si>
+  <si>
+    <t>8309aaa3</t>
+  </si>
+  <si>
+    <t>564f51b6</t>
+  </si>
+  <si>
+    <t>8f686b9c</t>
+  </si>
+  <si>
+    <t>4ac13467</t>
+  </si>
+  <si>
+    <t>f73b9a85</t>
+  </si>
+  <si>
+    <t>f7c2cad0</t>
+  </si>
+  <si>
+    <t>fbd2a481</t>
+  </si>
+  <si>
+    <t>5ab12d32</t>
+  </si>
+  <si>
+    <t>0ece1b08</t>
+  </si>
+  <si>
+    <t>f70efaa1</t>
+  </si>
+  <si>
+    <t>3c99bae3</t>
+  </si>
+  <si>
+    <t>7464e138</t>
+  </si>
+  <si>
+    <t>7d2160d9</t>
+  </si>
+  <si>
+    <t>ceafe0bd</t>
+  </si>
+  <si>
+    <t>058e8f1b</t>
+  </si>
+  <si>
+    <t>cbff3530</t>
+  </si>
+  <si>
+    <t>e5af6dac</t>
+  </si>
+  <si>
+    <t>8b8fc96a</t>
+  </si>
+  <si>
+    <t>5646ddaa</t>
+  </si>
+  <si>
+    <t>3f285192</t>
+  </si>
+  <si>
+    <t>f20fe45d</t>
+  </si>
+  <si>
+    <t>c23fcf6c</t>
+  </si>
+  <si>
+    <t>1afa3c17</t>
+  </si>
+  <si>
+    <t>af0100f9</t>
+  </si>
+  <si>
+    <t>d71db69e</t>
+  </si>
+  <si>
+    <t>6bedd794</t>
+  </si>
+  <si>
+    <t>a37f1f47</t>
+  </si>
+  <si>
+    <t>33f445f5</t>
+  </si>
+  <si>
+    <t>60f77b42</t>
+  </si>
+  <si>
+    <t>9d310de7</t>
+  </si>
+  <si>
+    <t>1863a3be</t>
+  </si>
+  <si>
+    <t>802e550c</t>
+  </si>
+  <si>
+    <t>604394df</t>
+  </si>
+  <si>
+    <t>803d47c7</t>
+  </si>
+  <si>
+    <t>304e61fa</t>
+  </si>
+  <si>
+    <t>42b7ef4f</t>
+  </si>
+  <si>
+    <t>0814bf93</t>
+  </si>
+  <si>
+    <t>94d6b95d</t>
+  </si>
+  <si>
+    <t>2a7fd64c</t>
+  </si>
+  <si>
+    <t>4693f91c</t>
+  </si>
+  <si>
+    <t>35ea01a0</t>
+  </si>
+  <si>
+    <t>80633cd5</t>
+  </si>
+  <si>
+    <t>0207fda4</t>
+  </si>
+  <si>
+    <t>f8781623</t>
+  </si>
+  <si>
+    <t>3f98cefe</t>
+  </si>
+  <si>
+    <t>565df2ab</t>
+  </si>
+  <si>
+    <t>6f756554</t>
+  </si>
+  <si>
+    <t>d46594c0</t>
+  </si>
+  <si>
+    <t>08272fd0</t>
+  </si>
+  <si>
+    <t>84eb8a40</t>
+  </si>
+  <si>
+    <t>9fa23cf1</t>
+  </si>
+  <si>
+    <t>291f8209</t>
+  </si>
+  <si>
+    <t>97d2bfed</t>
+  </si>
+  <si>
+    <t>54cb449b</t>
+  </si>
+  <si>
+    <t>6bc7d80c</t>
+  </si>
+  <si>
+    <t>354fe75c</t>
+  </si>
+  <si>
+    <t>0b5d6245</t>
+  </si>
+  <si>
+    <t>bee3d5d7</t>
+  </si>
+  <si>
+    <t>bb1fe983</t>
+  </si>
+  <si>
+    <t>5d3e459c</t>
+  </si>
+  <si>
+    <t>62b31346</t>
+  </si>
+  <si>
+    <t>c0fd1105</t>
+  </si>
+  <si>
+    <t>062068ab</t>
+  </si>
+  <si>
+    <t>f5e12d6c</t>
+  </si>
+  <si>
+    <t>58337be8</t>
+  </si>
+  <si>
+    <t>1f4fb0bb</t>
+  </si>
+  <si>
+    <t>30d67e5f</t>
+  </si>
+  <si>
+    <t>f008a1c2</t>
+  </si>
+  <si>
+    <t>13cdc1e6</t>
+  </si>
+  <si>
+    <t>6647e0f0</t>
+  </si>
+  <si>
+    <t>068918a7</t>
+  </si>
+  <si>
+    <t>5a658205</t>
+  </si>
+  <si>
+    <t>83ea6c06</t>
+  </si>
+  <si>
+    <t>52896fa2</t>
+  </si>
+  <si>
+    <t>e28661e9</t>
+  </si>
+  <si>
+    <t>e8777e3e</t>
+  </si>
+  <si>
+    <t>1deb4cd6</t>
+  </si>
+  <si>
+    <t>3319ffb6</t>
+  </si>
+  <si>
+    <t>65c8faac</t>
+  </si>
+  <si>
+    <t>1be4ae45</t>
+  </si>
+  <si>
+    <t>a52a9243</t>
+  </si>
+  <si>
+    <t>dff9dbe9</t>
+  </si>
+  <si>
+    <t>fd841707</t>
+  </si>
+  <si>
+    <t>5200dc19</t>
+  </si>
+  <si>
+    <t>3cb608d7</t>
+  </si>
+  <si>
+    <t>9f0d4b70</t>
+  </si>
+  <si>
+    <t>4872d787</t>
+  </si>
+  <si>
+    <t>764b9132</t>
+  </si>
+  <si>
+    <t>fa780893</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Thu Oct 10 01:40:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:41:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:41:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:41:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:41:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:42:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:42:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:42:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:42:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:43:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:43:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:43:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:44:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:44:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:44:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:44:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:44:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:45:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:45:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:45:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:46:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:46:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:46:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:46:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:46:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:47:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:47:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:47:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:47:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:48:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:48:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:48:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:48:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:49:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:49:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:49:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:49:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:49:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:50:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:50:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:50:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:50:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:51:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:51:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:51:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:51:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:51:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:51:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:52:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:52:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:52:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:52:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:53:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:53:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:53:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:53:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:53:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:54:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:54:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:54:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:54:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:54:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:55:08 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:55:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:55:32 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:55:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:55:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:56:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:56:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:56:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:56:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:56:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:57:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:57:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:57:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:57:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:57:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:57:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:58:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:58:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:58:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:58:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:59:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:59:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:59:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:59:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:59:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 01:59:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 02:00:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 02:00:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 02:00:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 02:00:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 02:01:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 02:01:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 02:01:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 02:01:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 02:02:04 EDT 2024</t>
+    <t>Mon Dec 23 09:27:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:28:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:28:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:28:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:29:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:29:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:30:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:30:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:30:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:31:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:31:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:31:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:32:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:32:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:32:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:33:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:33:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:33:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:34:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:34:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:34:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:35:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:35:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:36:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:36:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:36:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:37:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:37:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:37:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:37:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:38:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:38:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:39:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:39:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:39:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:40:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:40:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:40:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:41:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:41:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:41:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:42:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:42:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:42:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:43:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:43:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:43:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:44:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:44:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:45:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:45:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:45:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:46:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:46:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:46:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:46:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:47:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:47:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:48:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:48:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:48:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:49:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:49:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:49:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:50:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:50:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:50:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:51:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:51:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:51:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:52:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:52:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:52:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:53:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:53:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:53:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:54:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:54:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:54:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:55:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:55:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:55:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:56:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:56:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:56:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:57:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:57:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:57:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:58:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:58:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:58:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:59:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:59:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 09:59:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:00:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:00:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:00:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:01:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:01:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:01:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:02:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:02:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:02:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:03:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:03:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:03:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:04:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:04:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:04:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:05:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:05:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:05:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:06:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:06:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:06:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:07:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:07:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:07:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:08:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:08:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:08:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:09:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:09:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:09:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:10:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:10:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:10:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:11:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:11:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:11:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:12:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:12:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:12:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:13:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:13:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:13:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:14:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:14:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:14:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:15:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:15:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:15:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:16:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:16:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:16:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:17:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:17:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:17:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:18:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:18:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:18:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:19:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:19:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:19:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:20:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:20:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:21:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:21:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:21:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:22:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:22:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:22:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:23:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:23:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:23:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:24:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 23 10:24:30 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -12821,7 +13836,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
@@ -12836,6 +13851,9 @@
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -17097,8 +18115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFDD0FF-9C7F-42B8-8C7C-70B03C87DED6}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection sqref="A1:D62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19192,55 +20210,5304 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34221211-C528-4B9A-8EB9-3F2A8222C832}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:G172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
+      <selection activeCell="D6" sqref="D6:F172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="10.85546875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="4" width="28.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="13.7109375" collapsed="true"/>
+    <col min="6" max="16384" style="4" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
-        <v>315570060</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>315570230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>315570283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>315570393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>315570428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>315570443</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>315570466</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>315570565</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4239</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>4241</v>
+      </c>
+      <c r="E2" s="4">
+        <v>329096193</v>
+      </c>
+      <c r="F2" s="4">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
+        <v>4242</v>
+      </c>
+      <c r="E3" s="4">
+        <v>329096229</v>
+      </c>
+      <c r="F3" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="4" t="s">
+        <v>4243</v>
+      </c>
+      <c r="E4" s="4">
+        <v>329096254</v>
+      </c>
+      <c r="F4" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="4" t="s">
+        <v>4244</v>
+      </c>
+      <c r="E5" s="4">
+        <v>329096360</v>
+      </c>
+      <c r="F5" s="4">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="4" t="s">
+        <v>4245</v>
+      </c>
+      <c r="E6" s="4">
+        <v>329096388</v>
+      </c>
+      <c r="F6" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="4" t="s">
+        <v>4246</v>
+      </c>
+      <c r="E7" s="4">
+        <v>329096465</v>
+      </c>
+      <c r="F7" s="4">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="4" t="s">
+        <v>4247</v>
+      </c>
+      <c r="E8" s="4">
+        <v>329096516</v>
+      </c>
+      <c r="F8" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="s">
+        <v>4248</v>
+      </c>
+      <c r="E9" s="4">
+        <v>329096576</v>
+      </c>
+      <c r="F9" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="4" t="s">
+        <v>4249</v>
+      </c>
+      <c r="E10" s="4">
+        <v>329096607</v>
+      </c>
+      <c r="F10" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="4" t="s">
+        <v>4250</v>
+      </c>
+      <c r="E11" s="4">
+        <v>329096629</v>
+      </c>
+      <c r="F11" s="4">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="4" t="s">
+        <v>4251</v>
+      </c>
+      <c r="E12" s="4">
+        <v>329096666</v>
+      </c>
+      <c r="F12" s="4">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="4" t="s">
+        <v>4252</v>
+      </c>
+      <c r="E13" s="4">
+        <v>329096777</v>
+      </c>
+      <c r="F13" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="4" t="s">
+        <v>4253</v>
+      </c>
+      <c r="E14" s="4">
+        <v>329096821</v>
+      </c>
+      <c r="F14" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="4" t="s">
+        <v>4254</v>
+      </c>
+      <c r="E15" s="4">
+        <v>329096835</v>
+      </c>
+      <c r="F15" s="4">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="4" t="s">
+        <v>4255</v>
+      </c>
+      <c r="E16" s="4">
+        <v>329096865</v>
+      </c>
+      <c r="F16" s="4">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="4" t="s">
+        <v>4256</v>
+      </c>
+      <c r="E17" s="4">
+        <v>329096991</v>
+      </c>
+      <c r="F17" s="4">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="4" t="s">
+        <v>4257</v>
+      </c>
+      <c r="E18" s="4">
+        <v>329097041</v>
+      </c>
+      <c r="F18" s="4">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="4" t="s">
+        <v>4258</v>
+      </c>
+      <c r="E19" s="4">
+        <v>329097057</v>
+      </c>
+      <c r="F19" s="4">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="4" t="s">
+        <v>4259</v>
+      </c>
+      <c r="E20" s="4">
+        <v>329097139</v>
+      </c>
+      <c r="F20" s="4">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="4" t="s">
+        <v>4260</v>
+      </c>
+      <c r="E21" s="4">
+        <v>329097171</v>
+      </c>
+      <c r="F21" s="4">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="4" t="s">
+        <v>4261</v>
+      </c>
+      <c r="E22" s="4">
+        <v>329097227</v>
+      </c>
+      <c r="F22" s="4">
+        <v>17.149999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="4" t="s">
+        <v>4262</v>
+      </c>
+      <c r="E23" s="4">
+        <v>329097268</v>
+      </c>
+      <c r="F23" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="4" t="s">
+        <v>4263</v>
+      </c>
+      <c r="E24" s="4">
+        <v>329097287</v>
+      </c>
+      <c r="F24" s="4">
+        <v>12.66</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="4" t="s">
+        <v>4264</v>
+      </c>
+      <c r="E25" s="4">
+        <v>329097573</v>
+      </c>
+      <c r="F25" s="4">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="4" t="s">
+        <v>4265</v>
+      </c>
+      <c r="E26" s="4">
+        <v>329097586</v>
+      </c>
+      <c r="F26" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="4" t="s">
+        <v>4266</v>
+      </c>
+      <c r="E27" s="4">
+        <v>329097676</v>
+      </c>
+      <c r="F27" s="4">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="4" t="s">
+        <v>4267</v>
+      </c>
+      <c r="E28" s="4">
+        <v>329097696</v>
+      </c>
+      <c r="F28" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="4" t="s">
+        <v>4268</v>
+      </c>
+      <c r="E29" s="4">
+        <v>329097731</v>
+      </c>
+      <c r="F29" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="4" t="s">
+        <v>4269</v>
+      </c>
+      <c r="E30" s="4">
+        <v>329097770</v>
+      </c>
+      <c r="F30" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="4" t="s">
+        <v>4270</v>
+      </c>
+      <c r="E31" s="4">
+        <v>329097819</v>
+      </c>
+      <c r="F31" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="4" t="s">
+        <v>4271</v>
+      </c>
+      <c r="E32" s="4">
+        <v>329097843</v>
+      </c>
+      <c r="F32" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="4" t="s">
+        <v>4272</v>
+      </c>
+      <c r="E33" s="4">
+        <v>329097891</v>
+      </c>
+      <c r="F33" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="4" t="s">
+        <v>4273</v>
+      </c>
+      <c r="E34" s="4">
+        <v>329097943</v>
+      </c>
+      <c r="F34" s="4">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D35" s="4" t="s">
+        <v>4274</v>
+      </c>
+      <c r="E35" s="4">
+        <v>329097975</v>
+      </c>
+      <c r="F35" s="4">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="4" t="s">
+        <v>4275</v>
+      </c>
+      <c r="E36" s="4">
+        <v>329097986</v>
+      </c>
+      <c r="F36" s="4">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="4" t="s">
+        <v>4276</v>
+      </c>
+      <c r="E37" s="4">
+        <v>329098074</v>
+      </c>
+      <c r="F37" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="4" t="s">
+        <v>4277</v>
+      </c>
+      <c r="E38" s="4">
+        <v>329098091</v>
+      </c>
+      <c r="F38" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="4" t="s">
+        <v>4278</v>
+      </c>
+      <c r="E39" s="4">
+        <v>329098123</v>
+      </c>
+      <c r="F39" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D40" s="4" t="s">
+        <v>4279</v>
+      </c>
+      <c r="E40" s="4">
+        <v>329098155</v>
+      </c>
+      <c r="F40" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D41" s="4" t="s">
+        <v>4280</v>
+      </c>
+      <c r="E41" s="4">
+        <v>329098167</v>
+      </c>
+      <c r="F41" s="4">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="4" t="s">
+        <v>4281</v>
+      </c>
+      <c r="E42" s="4">
+        <v>329098308</v>
+      </c>
+      <c r="F42" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D43" s="4" t="s">
+        <v>4282</v>
+      </c>
+      <c r="E43" s="4">
+        <v>329098416</v>
+      </c>
+      <c r="F43" s="4">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D44" s="4" t="s">
+        <v>4283</v>
+      </c>
+      <c r="E44" s="4">
+        <v>329098428</v>
+      </c>
+      <c r="F44" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D45" s="4" t="s">
+        <v>4284</v>
+      </c>
+      <c r="E45" s="4">
+        <v>329098482</v>
+      </c>
+      <c r="F45" s="4">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="4" t="s">
+        <v>4285</v>
+      </c>
+      <c r="E46" s="4">
+        <v>329098532</v>
+      </c>
+      <c r="F46" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D47" s="4" t="s">
+        <v>4286</v>
+      </c>
+      <c r="E47" s="4">
+        <v>329098609</v>
+      </c>
+      <c r="F47" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="4" t="s">
+        <v>4287</v>
+      </c>
+      <c r="E48" s="4">
+        <v>329098620</v>
+      </c>
+      <c r="F48" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D49" s="4" t="s">
+        <v>4288</v>
+      </c>
+      <c r="E49" s="4">
+        <v>329098640</v>
+      </c>
+      <c r="F49" s="4">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D50" s="4" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E50" s="4">
+        <v>329098672</v>
+      </c>
+      <c r="F50" s="4">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D51" s="4" t="s">
+        <v>4290</v>
+      </c>
+      <c r="E51" s="4">
+        <v>329098771</v>
+      </c>
+      <c r="F51" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D52" s="4" t="s">
+        <v>4291</v>
+      </c>
+      <c r="E52" s="4">
+        <v>329098822</v>
+      </c>
+      <c r="F52" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D53" s="4" t="s">
+        <v>4292</v>
+      </c>
+      <c r="E53" s="4">
+        <v>329098850</v>
+      </c>
+      <c r="F53" s="4">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D54" s="4" t="s">
+        <v>4293</v>
+      </c>
+      <c r="E54" s="4">
+        <v>329098861</v>
+      </c>
+      <c r="F54" s="4">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D55" s="4" t="s">
+        <v>4294</v>
+      </c>
+      <c r="E55" s="4">
+        <v>329098955</v>
+      </c>
+      <c r="F55" s="4">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D56" s="4" t="s">
+        <v>4295</v>
+      </c>
+      <c r="E56" s="4">
+        <v>329098972</v>
+      </c>
+      <c r="F56" s="4">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D57" s="4" t="s">
+        <v>4296</v>
+      </c>
+      <c r="E57" s="4">
+        <v>329099007</v>
+      </c>
+      <c r="F57" s="4">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D58" s="4" t="s">
+        <v>4297</v>
+      </c>
+      <c r="E58" s="4">
+        <v>329099100</v>
+      </c>
+      <c r="F58" s="4">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D59" s="4" t="s">
+        <v>4298</v>
+      </c>
+      <c r="E59" s="4">
+        <v>329099115</v>
+      </c>
+      <c r="F59" s="4">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D60" s="4">
+        <v>73880677</v>
+      </c>
+      <c r="E60" s="4">
+        <v>329099166</v>
+      </c>
+      <c r="F60" s="4">
+        <v>17.149999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D61" s="4" t="s">
+        <v>4299</v>
+      </c>
+      <c r="E61" s="4">
+        <v>329099206</v>
+      </c>
+      <c r="F61" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D62" s="4" t="s">
+        <v>4300</v>
+      </c>
+      <c r="E62" s="4">
+        <v>329099233</v>
+      </c>
+      <c r="F62" s="4">
+        <v>12.66</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D63" s="4" t="s">
+        <v>4301</v>
+      </c>
+      <c r="E63" s="4">
+        <v>329099499</v>
+      </c>
+      <c r="F63" s="4">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D64" s="4" t="s">
+        <v>4302</v>
+      </c>
+      <c r="E64" s="4">
+        <v>329099524</v>
+      </c>
+      <c r="F64" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D65" s="4" t="s">
+        <v>4303</v>
+      </c>
+      <c r="E65" s="4">
+        <v>329099621</v>
+      </c>
+      <c r="F65" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D66" s="4" t="s">
+        <v>4304</v>
+      </c>
+      <c r="E66" s="4">
+        <v>329099644</v>
+      </c>
+      <c r="F66" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D67" s="4" t="s">
+        <v>4305</v>
+      </c>
+      <c r="E67" s="4">
+        <v>329099677</v>
+      </c>
+      <c r="F67" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D68" s="4" t="s">
+        <v>4306</v>
+      </c>
+      <c r="E68" s="4">
+        <v>329099726</v>
+      </c>
+      <c r="F68" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D69" s="4" t="s">
+        <v>4307</v>
+      </c>
+      <c r="E69" s="4">
+        <v>329099745</v>
+      </c>
+      <c r="F69" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D70" s="4" t="s">
+        <v>4308</v>
+      </c>
+      <c r="E70" s="4">
+        <v>329099792</v>
+      </c>
+      <c r="F70" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D71" s="4" t="s">
+        <v>4309</v>
+      </c>
+      <c r="E71" s="4">
+        <v>329099872</v>
+      </c>
+      <c r="F71" s="4">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D72" s="4" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E72" s="4">
+        <v>329099892</v>
+      </c>
+      <c r="F72" s="4">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D73" s="4" t="s">
+        <v>4311</v>
+      </c>
+      <c r="E73" s="4">
+        <v>329099917</v>
+      </c>
+      <c r="F73" s="4">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D74" s="4" t="s">
+        <v>4312</v>
+      </c>
+      <c r="E74" s="4">
+        <v>329099965</v>
+      </c>
+      <c r="F74" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D75" s="4" t="s">
+        <v>4313</v>
+      </c>
+      <c r="E75" s="4">
+        <v>329099998</v>
+      </c>
+      <c r="F75" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D76" s="4" t="s">
+        <v>4314</v>
+      </c>
+      <c r="E76" s="4">
+        <v>329100012</v>
+      </c>
+      <c r="F76" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D77" s="4" t="s">
+        <v>4315</v>
+      </c>
+      <c r="E77" s="4">
+        <v>329100069</v>
+      </c>
+      <c r="F77" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D78" s="4" t="s">
+        <v>4316</v>
+      </c>
+      <c r="E78" s="4">
+        <v>329100098</v>
+      </c>
+      <c r="F78" s="4">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D79" s="4" t="s">
+        <v>4317</v>
+      </c>
+      <c r="E79" s="4">
+        <v>329100222</v>
+      </c>
+      <c r="F79" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D80" s="4" t="s">
+        <v>4318</v>
+      </c>
+      <c r="E80" s="4">
+        <v>329100235</v>
+      </c>
+      <c r="F80" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="4" t="s">
+        <v>4319</v>
+      </c>
+      <c r="E81" s="4">
+        <v>329100386</v>
+      </c>
+      <c r="F81" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D82" s="4" t="s">
+        <v>4320</v>
+      </c>
+      <c r="E82" s="4">
+        <v>329100415</v>
+      </c>
+      <c r="F82" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D83" s="4" t="s">
+        <v>4321</v>
+      </c>
+      <c r="E83" s="4">
+        <v>329100429</v>
+      </c>
+      <c r="F83" s="4">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D84" s="4" t="s">
+        <v>4322</v>
+      </c>
+      <c r="E84" s="4">
+        <v>329100457</v>
+      </c>
+      <c r="F84" s="4">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D85" s="4" t="s">
+        <v>4323</v>
+      </c>
+      <c r="E85" s="4">
+        <v>329100566</v>
+      </c>
+      <c r="F85" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D86" s="4" t="s">
+        <v>4324</v>
+      </c>
+      <c r="E86" s="4">
+        <v>329100621</v>
+      </c>
+      <c r="F86" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D87" s="4" t="s">
+        <v>4325</v>
+      </c>
+      <c r="E87" s="4">
+        <v>329100632</v>
+      </c>
+      <c r="F87" s="4">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D88" s="4" t="s">
+        <v>4326</v>
+      </c>
+      <c r="E88" s="4">
+        <v>329100666</v>
+      </c>
+      <c r="F88" s="4">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D89" s="4" t="s">
+        <v>4327</v>
+      </c>
+      <c r="E89" s="4">
+        <v>329100785</v>
+      </c>
+      <c r="F89" s="4">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D90" s="4" t="s">
+        <v>4328</v>
+      </c>
+      <c r="E90" s="4">
+        <v>329100815</v>
+      </c>
+      <c r="F90" s="4">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D91" s="4" t="s">
+        <v>4329</v>
+      </c>
+      <c r="E91" s="4">
+        <v>329100832</v>
+      </c>
+      <c r="F91" s="4">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D92" s="4" t="s">
+        <v>4330</v>
+      </c>
+      <c r="E92" s="4">
+        <v>329100932</v>
+      </c>
+      <c r="F92" s="4">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="93" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D93" s="4" t="s">
+        <v>4331</v>
+      </c>
+      <c r="E93" s="4">
+        <v>329100965</v>
+      </c>
+      <c r="F93" s="4">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D94" s="4" t="s">
+        <v>4332</v>
+      </c>
+      <c r="E94" s="4">
+        <v>329101022</v>
+      </c>
+      <c r="F94" s="4">
+        <v>17.149999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D95" s="4" t="s">
+        <v>4333</v>
+      </c>
+      <c r="E95" s="4">
+        <v>329101064</v>
+      </c>
+      <c r="F95" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D96" s="4" t="s">
+        <v>4334</v>
+      </c>
+      <c r="E96" s="4">
+        <v>329101083</v>
+      </c>
+      <c r="F96" s="4">
+        <v>12.66</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D97" s="4" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E97" s="4">
+        <v>329101437</v>
+      </c>
+      <c r="F97" s="4">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D98" s="4" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E98" s="4">
+        <v>329101453</v>
+      </c>
+      <c r="F98" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D99" s="4" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E99" s="4">
+        <v>329101562</v>
+      </c>
+      <c r="F99" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D100" s="4" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E100" s="4">
+        <v>329101609</v>
+      </c>
+      <c r="F100" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D101" s="4" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E101" s="4">
+        <v>329114247</v>
+      </c>
+      <c r="F101" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D102" s="4" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E102" s="4">
+        <v>329104466</v>
+      </c>
+      <c r="F102" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D103" s="4" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E103" s="4">
+        <v>329104418</v>
+      </c>
+      <c r="F103" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="104" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D104" s="4" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E104" s="4">
+        <v>329104350</v>
+      </c>
+      <c r="F104" s="4">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D105" s="4" t="s">
+        <v>4343</v>
+      </c>
+      <c r="E105" s="4">
+        <v>329104345</v>
+      </c>
+      <c r="F105" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D106" s="4" t="s">
+        <v>4344</v>
+      </c>
+      <c r="E106" s="4">
+        <v>329104334</v>
+      </c>
+      <c r="F106" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D107" s="4" t="s">
+        <v>4345</v>
+      </c>
+      <c r="E107" s="4">
+        <v>329104320</v>
+      </c>
+      <c r="F107" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="108" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D108" s="4" t="s">
+        <v>4346</v>
+      </c>
+      <c r="E108" s="4">
+        <v>329104295</v>
+      </c>
+      <c r="F108" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D109" s="4" t="s">
+        <v>4347</v>
+      </c>
+      <c r="E109" s="4">
+        <v>329104242</v>
+      </c>
+      <c r="F109" s="4">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D110" s="4" t="s">
+        <v>4348</v>
+      </c>
+      <c r="E110" s="4">
+        <v>329104235</v>
+      </c>
+      <c r="F110" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D111" s="4" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E111" s="4">
+        <v>329104217</v>
+      </c>
+      <c r="F111" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D112" s="4" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E112" s="4">
+        <v>329104201</v>
+      </c>
+      <c r="F112" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D113" s="4" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E113" s="4">
+        <v>329104144</v>
+      </c>
+      <c r="F113" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D114" s="4" t="s">
+        <v>4352</v>
+      </c>
+      <c r="E114" s="4">
+        <v>329104063</v>
+      </c>
+      <c r="F114" s="4">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D115" s="4" t="s">
+        <v>4353</v>
+      </c>
+      <c r="E115" s="4">
+        <v>329104059</v>
+      </c>
+      <c r="F115" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D116" s="4" t="s">
+        <v>4354</v>
+      </c>
+      <c r="E116" s="4">
+        <v>329104040</v>
+      </c>
+      <c r="F116" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D117" s="4" t="s">
+        <v>4355</v>
+      </c>
+      <c r="E117" s="4">
+        <v>329104031</v>
+      </c>
+      <c r="F117" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D118" s="4" t="s">
+        <v>4356</v>
+      </c>
+      <c r="E118" s="4">
+        <v>329104029</v>
+      </c>
+      <c r="F118" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D119" s="4" t="s">
+        <v>4357</v>
+      </c>
+      <c r="E119" s="4">
+        <v>329103998</v>
+      </c>
+      <c r="F119" s="4">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D120" s="4" t="s">
+        <v>4358</v>
+      </c>
+      <c r="E120" s="4">
+        <v>329103992</v>
+      </c>
+      <c r="F120" s="4">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D121" s="4" t="s">
+        <v>4359</v>
+      </c>
+      <c r="E121" s="4">
+        <v>329103985</v>
+      </c>
+      <c r="F121" s="4">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D122" s="4" t="s">
+        <v>4360</v>
+      </c>
+      <c r="E122" s="4">
+        <v>329103935</v>
+      </c>
+      <c r="F122" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D123" s="4" t="s">
+        <v>4361</v>
+      </c>
+      <c r="E123" s="4">
+        <v>329103872</v>
+      </c>
+      <c r="F123" s="4">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D124" s="4" t="s">
+        <v>4362</v>
+      </c>
+      <c r="E124" s="4">
+        <v>329103867</v>
+      </c>
+      <c r="F124" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="125" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D125" s="4" t="s">
+        <v>4363</v>
+      </c>
+      <c r="E125" s="4">
+        <v>329103844</v>
+      </c>
+      <c r="F125" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D126" s="4" t="s">
+        <v>4364</v>
+      </c>
+      <c r="E126" s="4">
+        <v>329103834</v>
+      </c>
+      <c r="F126" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="127" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D127" s="4" t="s">
+        <v>4365</v>
+      </c>
+      <c r="E127" s="4">
+        <v>329103815</v>
+      </c>
+      <c r="F127" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D128" s="4" t="s">
+        <v>4366</v>
+      </c>
+      <c r="E128" s="4">
+        <v>329103782</v>
+      </c>
+      <c r="F128" s="4">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D129" s="4" t="s">
+        <v>4367</v>
+      </c>
+      <c r="E129" s="4">
+        <v>329103753</v>
+      </c>
+      <c r="F129" s="4">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D130" s="4" t="s">
+        <v>4368</v>
+      </c>
+      <c r="E130" s="4">
+        <v>329103749</v>
+      </c>
+      <c r="F130" s="4">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D131" s="4" t="s">
+        <v>4369</v>
+      </c>
+      <c r="E131" s="4">
+        <v>329103644</v>
+      </c>
+      <c r="F131" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D132" s="4" t="s">
+        <v>4370</v>
+      </c>
+      <c r="E132" s="4">
+        <v>329103507</v>
+      </c>
+      <c r="F132" s="4">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D133" s="4" t="s">
+        <v>4371</v>
+      </c>
+      <c r="E133" s="4">
+        <v>329103496</v>
+      </c>
+      <c r="F133" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D134" s="4" t="s">
+        <v>4372</v>
+      </c>
+      <c r="E134" s="4">
+        <v>329103466</v>
+      </c>
+      <c r="F134" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="135" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D135" s="4" t="s">
+        <v>4373</v>
+      </c>
+      <c r="E135" s="4">
+        <v>329103447</v>
+      </c>
+      <c r="F135" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="136" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D136" s="4" t="s">
+        <v>4374</v>
+      </c>
+      <c r="E136" s="4">
+        <v>329103432</v>
+      </c>
+      <c r="F136" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="137" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D137" s="4" t="s">
+        <v>4375</v>
+      </c>
+      <c r="E137" s="4">
+        <v>329103379</v>
+      </c>
+      <c r="F137" s="4">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="138" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D138" s="4" t="s">
+        <v>4376</v>
+      </c>
+      <c r="E138" s="4">
+        <v>329103364</v>
+      </c>
+      <c r="F138" s="4">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="139" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D139" s="4">
+        <v>28592655</v>
+      </c>
+      <c r="E139" s="4">
+        <v>329103328</v>
+      </c>
+      <c r="F139" s="4">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="140" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D140" s="4" t="s">
+        <v>4377</v>
+      </c>
+      <c r="E140" s="4">
+        <v>329103293</v>
+      </c>
+      <c r="F140" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="141" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D141" s="4" t="s">
+        <v>4378</v>
+      </c>
+      <c r="E141" s="4">
+        <v>329103182</v>
+      </c>
+      <c r="F141" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="142" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D142" s="4" t="s">
+        <v>4379</v>
+      </c>
+      <c r="E142" s="4">
+        <v>329103007</v>
+      </c>
+      <c r="F142" s="4">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="143" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D143" s="4" t="s">
+        <v>4380</v>
+      </c>
+      <c r="E143" s="4">
+        <v>329102985</v>
+      </c>
+      <c r="F143" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="144" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D144" s="4" t="s">
+        <v>4381</v>
+      </c>
+      <c r="E144" s="4">
+        <v>329102947</v>
+      </c>
+      <c r="F144" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D145" s="4" t="s">
+        <v>4382</v>
+      </c>
+      <c r="E145" s="4">
+        <v>329102919</v>
+      </c>
+      <c r="F145" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D146" s="4" t="s">
+        <v>4383</v>
+      </c>
+      <c r="E146" s="4">
+        <v>329102907</v>
+      </c>
+      <c r="F146" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="147" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D147" s="4" t="s">
+        <v>4384</v>
+      </c>
+      <c r="E147" s="4">
+        <v>329102843</v>
+      </c>
+      <c r="F147" s="4">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="148" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D148" s="4" t="s">
+        <v>4385</v>
+      </c>
+      <c r="E148" s="4">
+        <v>329102829</v>
+      </c>
+      <c r="F148" s="4">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="149" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D149" s="4" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E149" s="4">
+        <v>329102791</v>
+      </c>
+      <c r="F149" s="4">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="150" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D150" s="4" t="s">
+        <v>4387</v>
+      </c>
+      <c r="E150" s="4">
+        <v>329102738</v>
+      </c>
+      <c r="F150" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="151" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D151" s="4" t="s">
+        <v>4388</v>
+      </c>
+      <c r="E151" s="4">
+        <v>329102703</v>
+      </c>
+      <c r="F151" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="152" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D152" s="4" t="s">
+        <v>4389</v>
+      </c>
+      <c r="E152" s="4">
+        <v>329102681</v>
+      </c>
+      <c r="F152" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="153" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D153" s="4" t="s">
+        <v>4390</v>
+      </c>
+      <c r="E153" s="4">
+        <v>329102653</v>
+      </c>
+      <c r="F153" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="154" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D154" s="4" t="s">
+        <v>4391</v>
+      </c>
+      <c r="E154" s="4">
+        <v>329102623</v>
+      </c>
+      <c r="F154" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="155" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D155" s="4" t="s">
+        <v>4392</v>
+      </c>
+      <c r="E155" s="4">
+        <v>329102583</v>
+      </c>
+      <c r="F155" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="156" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D156" s="4" t="s">
+        <v>4393</v>
+      </c>
+      <c r="E156" s="4">
+        <v>329102498</v>
+      </c>
+      <c r="F156" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="157" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D157" s="4" t="s">
+        <v>4394</v>
+      </c>
+      <c r="E157" s="4">
+        <v>329102238</v>
+      </c>
+      <c r="F157" s="4">
+        <v>12.66</v>
+      </c>
+    </row>
+    <row r="158" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D158" s="4" t="s">
+        <v>4395</v>
+      </c>
+      <c r="E158" s="4">
+        <v>329102227</v>
+      </c>
+      <c r="F158" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="159" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D159" s="4" t="s">
+        <v>4396</v>
+      </c>
+      <c r="E159" s="4">
+        <v>329102163</v>
+      </c>
+      <c r="F159" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="160" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D160" s="4" t="s">
+        <v>4397</v>
+      </c>
+      <c r="E160" s="4">
+        <v>329102140</v>
+      </c>
+      <c r="F160" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D161" s="4" t="s">
+        <v>4398</v>
+      </c>
+      <c r="E161" s="4">
+        <v>329102057</v>
+      </c>
+      <c r="F161" s="4">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="162" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D162" s="4" t="s">
+        <v>4399</v>
+      </c>
+      <c r="E162" s="4">
+        <v>329102044</v>
+      </c>
+      <c r="F162" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D163" s="4" t="s">
+        <v>4400</v>
+      </c>
+      <c r="E163" s="4">
+        <v>329101994</v>
+      </c>
+      <c r="F163" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D164" s="4" t="s">
+        <v>4401</v>
+      </c>
+      <c r="E164" s="4">
+        <v>329101963</v>
+      </c>
+      <c r="F164" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D165" s="4" t="s">
+        <v>4402</v>
+      </c>
+      <c r="E165" s="4">
+        <v>329101947</v>
+      </c>
+      <c r="F165" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D166" s="4" t="s">
+        <v>4403</v>
+      </c>
+      <c r="E166" s="4">
+        <v>329101873</v>
+      </c>
+      <c r="F166" s="4">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="167" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D167" s="4" t="s">
+        <v>4404</v>
+      </c>
+      <c r="E167" s="4">
+        <v>329101859</v>
+      </c>
+      <c r="F167" s="4">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D168" s="4" t="s">
+        <v>4405</v>
+      </c>
+      <c r="E168" s="4">
+        <v>329101826</v>
+      </c>
+      <c r="F168" s="4">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="169" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D169" s="4" t="s">
+        <v>4406</v>
+      </c>
+      <c r="E169" s="4">
+        <v>329101775</v>
+      </c>
+      <c r="F169" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="170" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D170" s="4" t="s">
+        <v>4407</v>
+      </c>
+      <c r="E170" s="4">
+        <v>329101736</v>
+      </c>
+      <c r="F170" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="171" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D171" s="4" t="s">
+        <v>4408</v>
+      </c>
+      <c r="E171" s="4">
+        <v>329101708</v>
+      </c>
+      <c r="F171" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="172" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D172" s="4" t="s">
+        <v>4409</v>
+      </c>
+      <c r="E172" s="4">
+        <v>329101660</v>
+      </c>
+      <c r="F172" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2952D481-493E-4A87-B855-A6D6F5EC813A}">
+  <dimension ref="A1:G168"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C168"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="13.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="31.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="8.0" collapsed="true"/>
+    <col min="4" max="4" style="4" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="16.85546875" collapsed="true"/>
+    <col min="6" max="16384" style="4" width="13.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4239</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4411</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4245</v>
+      </c>
+      <c r="E2" s="4">
+        <v>329096388</v>
+      </c>
+      <c r="F2" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4412</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4246</v>
+      </c>
+      <c r="E3" s="4">
+        <v>329096465</v>
+      </c>
+      <c r="F3" s="4">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4413</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4247</v>
+      </c>
+      <c r="E4" s="4">
+        <v>329096516</v>
+      </c>
+      <c r="F4" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4414</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>4248</v>
+      </c>
+      <c r="E5" s="4">
+        <v>329096576</v>
+      </c>
+      <c r="F5" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4415</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>4249</v>
+      </c>
+      <c r="E6" s="4">
+        <v>329096607</v>
+      </c>
+      <c r="F6" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4416</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>4250</v>
+      </c>
+      <c r="E7" s="4">
+        <v>329096629</v>
+      </c>
+      <c r="F7" s="4">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4417</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>4251</v>
+      </c>
+      <c r="E8" s="4">
+        <v>329096666</v>
+      </c>
+      <c r="F8" s="4">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4418</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>4252</v>
+      </c>
+      <c r="E9" s="4">
+        <v>329096777</v>
+      </c>
+      <c r="F9" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4419</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>4253</v>
+      </c>
+      <c r="E10" s="4">
+        <v>329096821</v>
+      </c>
+      <c r="F10" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4420</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>4254</v>
+      </c>
+      <c r="E11" s="4">
+        <v>329096835</v>
+      </c>
+      <c r="F11" s="4">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4421</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>4255</v>
+      </c>
+      <c r="E12" s="4">
+        <v>329096865</v>
+      </c>
+      <c r="F12" s="4">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4422</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>4256</v>
+      </c>
+      <c r="E13" s="4">
+        <v>329096991</v>
+      </c>
+      <c r="F13" s="4">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4423</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>4257</v>
+      </c>
+      <c r="E14" s="4">
+        <v>329097041</v>
+      </c>
+      <c r="F14" s="4">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4424</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>4258</v>
+      </c>
+      <c r="E15" s="4">
+        <v>329097057</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4425</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>4259</v>
+      </c>
+      <c r="E16" s="4">
+        <v>329097139</v>
+      </c>
+      <c r="F16" s="4">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4426</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>4260</v>
+      </c>
+      <c r="E17" s="4">
+        <v>329097171</v>
+      </c>
+      <c r="F17" s="4">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4427</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>4261</v>
+      </c>
+      <c r="E18" s="4">
+        <v>329097227</v>
+      </c>
+      <c r="F18" s="4">
+        <v>17.149999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4428</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>4262</v>
+      </c>
+      <c r="E19" s="4">
+        <v>329097268</v>
+      </c>
+      <c r="F19" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4429</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>4263</v>
+      </c>
+      <c r="E20" s="4">
+        <v>329097287</v>
+      </c>
+      <c r="F20" s="4">
+        <v>12.66</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4430</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>4264</v>
+      </c>
+      <c r="E21" s="4">
+        <v>329097573</v>
+      </c>
+      <c r="F21" s="4">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4431</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>4265</v>
+      </c>
+      <c r="E22" s="4">
+        <v>329097586</v>
+      </c>
+      <c r="F22" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4432</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>4266</v>
+      </c>
+      <c r="E23" s="4">
+        <v>329097676</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4433</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>4267</v>
+      </c>
+      <c r="E24" s="4">
+        <v>329097696</v>
+      </c>
+      <c r="F24" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4434</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>4268</v>
+      </c>
+      <c r="E25" s="4">
+        <v>329097731</v>
+      </c>
+      <c r="F25" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4435</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>4269</v>
+      </c>
+      <c r="E26" s="4">
+        <v>329097770</v>
+      </c>
+      <c r="F26" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4436</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>4270</v>
+      </c>
+      <c r="E27" s="4">
+        <v>329097819</v>
+      </c>
+      <c r="F27" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4437</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>4271</v>
+      </c>
+      <c r="E28" s="4">
+        <v>329097843</v>
+      </c>
+      <c r="F28" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4438</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>4272</v>
+      </c>
+      <c r="E29" s="4">
+        <v>329097891</v>
+      </c>
+      <c r="F29" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4439</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>4273</v>
+      </c>
+      <c r="E30" s="4">
+        <v>329097943</v>
+      </c>
+      <c r="F30" s="4">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4440</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>4274</v>
+      </c>
+      <c r="E31" s="4">
+        <v>329097975</v>
+      </c>
+      <c r="F31" s="4">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4441</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>4275</v>
+      </c>
+      <c r="E32" s="4">
+        <v>329097986</v>
+      </c>
+      <c r="F32" s="4">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4442</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>4276</v>
+      </c>
+      <c r="E33" s="4">
+        <v>329098074</v>
+      </c>
+      <c r="F33" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4443</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>4277</v>
+      </c>
+      <c r="E34" s="4">
+        <v>329098091</v>
+      </c>
+      <c r="F34" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4444</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>4278</v>
+      </c>
+      <c r="E35" s="4">
+        <v>329098123</v>
+      </c>
+      <c r="F35" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4445</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>4279</v>
+      </c>
+      <c r="E36" s="4">
+        <v>329098155</v>
+      </c>
+      <c r="F36" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4446</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>4280</v>
+      </c>
+      <c r="E37" s="4">
+        <v>329098167</v>
+      </c>
+      <c r="F37" s="4">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4447</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>4281</v>
+      </c>
+      <c r="E38" s="4">
+        <v>329098308</v>
+      </c>
+      <c r="F38" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4448</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>4282</v>
+      </c>
+      <c r="E39" s="4">
+        <v>329098416</v>
+      </c>
+      <c r="F39" s="4">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4449</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>4283</v>
+      </c>
+      <c r="E40" s="4">
+        <v>329098428</v>
+      </c>
+      <c r="F40" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4450</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>4284</v>
+      </c>
+      <c r="E41" s="4">
+        <v>329098482</v>
+      </c>
+      <c r="F41" s="4">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4451</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>4285</v>
+      </c>
+      <c r="E42" s="4">
+        <v>329098532</v>
+      </c>
+      <c r="F42" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4452</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>4286</v>
+      </c>
+      <c r="E43" s="4">
+        <v>329098609</v>
+      </c>
+      <c r="F43" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4453</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>4287</v>
+      </c>
+      <c r="E44" s="4">
+        <v>329098620</v>
+      </c>
+      <c r="F44" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4454</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>4288</v>
+      </c>
+      <c r="E45" s="4">
+        <v>329098640</v>
+      </c>
+      <c r="F45" s="4">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4455</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E46" s="4">
+        <v>329098672</v>
+      </c>
+      <c r="F46" s="4">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4456</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>4290</v>
+      </c>
+      <c r="E47" s="4">
+        <v>329098771</v>
+      </c>
+      <c r="F47" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4457</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>4291</v>
+      </c>
+      <c r="E48" s="4">
+        <v>329098822</v>
+      </c>
+      <c r="F48" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4458</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>4292</v>
+      </c>
+      <c r="E49" s="4">
+        <v>329098850</v>
+      </c>
+      <c r="F49" s="4">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4459</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>4293</v>
+      </c>
+      <c r="E50" s="4">
+        <v>329098861</v>
+      </c>
+      <c r="F50" s="4">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4460</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>4294</v>
+      </c>
+      <c r="E51" s="4">
+        <v>329098955</v>
+      </c>
+      <c r="F51" s="4">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4461</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>4295</v>
+      </c>
+      <c r="E52" s="4">
+        <v>329098972</v>
+      </c>
+      <c r="F52" s="4">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4462</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>4296</v>
+      </c>
+      <c r="E53" s="4">
+        <v>329099007</v>
+      </c>
+      <c r="F53" s="4">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4463</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>4297</v>
+      </c>
+      <c r="E54" s="4">
+        <v>329099100</v>
+      </c>
+      <c r="F54" s="4">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4464</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>4298</v>
+      </c>
+      <c r="E55" s="4">
+        <v>329099115</v>
+      </c>
+      <c r="F55" s="4">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4465</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="4">
+        <v>73880677</v>
+      </c>
+      <c r="E56" s="4">
+        <v>329099166</v>
+      </c>
+      <c r="F56" s="4">
+        <v>17.149999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4466</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>4299</v>
+      </c>
+      <c r="E57" s="4">
+        <v>329099206</v>
+      </c>
+      <c r="F57" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4467</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>4300</v>
+      </c>
+      <c r="E58" s="4">
+        <v>329099233</v>
+      </c>
+      <c r="F58" s="4">
+        <v>12.66</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4468</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>4301</v>
+      </c>
+      <c r="E59" s="4">
+        <v>329099499</v>
+      </c>
+      <c r="F59" s="4">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4469</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>4302</v>
+      </c>
+      <c r="E60" s="4">
+        <v>329099524</v>
+      </c>
+      <c r="F60" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4470</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>4303</v>
+      </c>
+      <c r="E61" s="4">
+        <v>329099621</v>
+      </c>
+      <c r="F61" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4471</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>4304</v>
+      </c>
+      <c r="E62" s="4">
+        <v>329099644</v>
+      </c>
+      <c r="F62" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4472</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>4305</v>
+      </c>
+      <c r="E63" s="4">
+        <v>329099677</v>
+      </c>
+      <c r="F63" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4473</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>4306</v>
+      </c>
+      <c r="E64" s="4">
+        <v>329099726</v>
+      </c>
+      <c r="F64" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4474</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>4307</v>
+      </c>
+      <c r="E65" s="4">
+        <v>329099745</v>
+      </c>
+      <c r="F65" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4475</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>4308</v>
+      </c>
+      <c r="E66" s="4">
+        <v>329099792</v>
+      </c>
+      <c r="F66" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4476</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>4309</v>
+      </c>
+      <c r="E67" s="4">
+        <v>329099872</v>
+      </c>
+      <c r="F67" s="4">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4477</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E68" s="4">
+        <v>329099892</v>
+      </c>
+      <c r="F68" s="4">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4478</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>4311</v>
+      </c>
+      <c r="E69" s="4">
+        <v>329099917</v>
+      </c>
+      <c r="F69" s="4">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4479</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>4312</v>
+      </c>
+      <c r="E70" s="4">
+        <v>329099965</v>
+      </c>
+      <c r="F70" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4480</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>4313</v>
+      </c>
+      <c r="E71" s="4">
+        <v>329099998</v>
+      </c>
+      <c r="F71" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4481</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>4314</v>
+      </c>
+      <c r="E72" s="4">
+        <v>329100012</v>
+      </c>
+      <c r="F72" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4482</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>4315</v>
+      </c>
+      <c r="E73" s="4">
+        <v>329100069</v>
+      </c>
+      <c r="F73" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4483</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>4316</v>
+      </c>
+      <c r="E74" s="4">
+        <v>329100098</v>
+      </c>
+      <c r="F74" s="4">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4484</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>4317</v>
+      </c>
+      <c r="E75" s="4">
+        <v>329100222</v>
+      </c>
+      <c r="F75" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4485</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>4318</v>
+      </c>
+      <c r="E76" s="4">
+        <v>329100235</v>
+      </c>
+      <c r="F76" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4486</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>4319</v>
+      </c>
+      <c r="E77" s="4">
+        <v>329100386</v>
+      </c>
+      <c r="F77" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4487</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>4320</v>
+      </c>
+      <c r="E78" s="4">
+        <v>329100415</v>
+      </c>
+      <c r="F78" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4488</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>4321</v>
+      </c>
+      <c r="E79" s="4">
+        <v>329100429</v>
+      </c>
+      <c r="F79" s="4">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4489</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>4322</v>
+      </c>
+      <c r="E80" s="4">
+        <v>329100457</v>
+      </c>
+      <c r="F80" s="4">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4490</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>4323</v>
+      </c>
+      <c r="E81" s="4">
+        <v>329100566</v>
+      </c>
+      <c r="F81" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4491</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>4324</v>
+      </c>
+      <c r="E82" s="4">
+        <v>329100621</v>
+      </c>
+      <c r="F82" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4492</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>4325</v>
+      </c>
+      <c r="E83" s="4">
+        <v>329100632</v>
+      </c>
+      <c r="F83" s="4">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4493</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>4326</v>
+      </c>
+      <c r="E84" s="4">
+        <v>329100666</v>
+      </c>
+      <c r="F84" s="4">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4494</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>4327</v>
+      </c>
+      <c r="E85" s="4">
+        <v>329100785</v>
+      </c>
+      <c r="F85" s="4">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4495</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>4328</v>
+      </c>
+      <c r="E86" s="4">
+        <v>329100815</v>
+      </c>
+      <c r="F86" s="4">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4496</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>4329</v>
+      </c>
+      <c r="E87" s="4">
+        <v>329100832</v>
+      </c>
+      <c r="F87" s="4">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4497</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>4330</v>
+      </c>
+      <c r="E88" s="4">
+        <v>329100932</v>
+      </c>
+      <c r="F88" s="4">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4498</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>4331</v>
+      </c>
+      <c r="E89" s="4">
+        <v>329100965</v>
+      </c>
+      <c r="F89" s="4">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4499</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>4332</v>
+      </c>
+      <c r="E90" s="4">
+        <v>329101022</v>
+      </c>
+      <c r="F90" s="4">
+        <v>17.149999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4500</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>4333</v>
+      </c>
+      <c r="E91" s="4">
+        <v>329101064</v>
+      </c>
+      <c r="F91" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4501</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>4334</v>
+      </c>
+      <c r="E92" s="4">
+        <v>329101083</v>
+      </c>
+      <c r="F92" s="4">
+        <v>12.66</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4502</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E93" s="4">
+        <v>329101437</v>
+      </c>
+      <c r="F93" s="4">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4503</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E94" s="4">
+        <v>329101453</v>
+      </c>
+      <c r="F94" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4504</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E95" s="4">
+        <v>329101562</v>
+      </c>
+      <c r="F95" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4505</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E96" s="4">
+        <v>329101609</v>
+      </c>
+      <c r="F96" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4506</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E97" s="4">
+        <v>329114247</v>
+      </c>
+      <c r="F97" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4507</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E98" s="4">
+        <v>329104466</v>
+      </c>
+      <c r="F98" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4508</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E99" s="4">
+        <v>329104418</v>
+      </c>
+      <c r="F99" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4509</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E100" s="4">
+        <v>329104350</v>
+      </c>
+      <c r="F100" s="4">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4510</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>4343</v>
+      </c>
+      <c r="E101" s="4">
+        <v>329104345</v>
+      </c>
+      <c r="F101" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4511</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>4344</v>
+      </c>
+      <c r="E102" s="4">
+        <v>329104334</v>
+      </c>
+      <c r="F102" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4512</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>4345</v>
+      </c>
+      <c r="E103" s="4">
+        <v>329104320</v>
+      </c>
+      <c r="F103" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4513</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>4346</v>
+      </c>
+      <c r="E104" s="4">
+        <v>329104295</v>
+      </c>
+      <c r="F104" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4514</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>4347</v>
+      </c>
+      <c r="E105" s="4">
+        <v>329104242</v>
+      </c>
+      <c r="F105" s="4">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="106" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4515</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>4348</v>
+      </c>
+      <c r="E106" s="4">
+        <v>329104235</v>
+      </c>
+      <c r="F106" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4516</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E107" s="4">
+        <v>329104217</v>
+      </c>
+      <c r="F107" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="108" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4517</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E108" s="4">
+        <v>329104201</v>
+      </c>
+      <c r="F108" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4518</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E109" s="4">
+        <v>329104144</v>
+      </c>
+      <c r="F109" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="110" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4519</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>4352</v>
+      </c>
+      <c r="E110" s="4">
+        <v>329104063</v>
+      </c>
+      <c r="F110" s="4">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="111" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4520</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>4353</v>
+      </c>
+      <c r="E111" s="4">
+        <v>329104059</v>
+      </c>
+      <c r="F111" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="112" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4521</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>4354</v>
+      </c>
+      <c r="E112" s="4">
+        <v>329104040</v>
+      </c>
+      <c r="F112" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4522</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>4355</v>
+      </c>
+      <c r="E113" s="4">
+        <v>329104031</v>
+      </c>
+      <c r="F113" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4523</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>4356</v>
+      </c>
+      <c r="E114" s="4">
+        <v>329104029</v>
+      </c>
+      <c r="F114" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4524</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>4357</v>
+      </c>
+      <c r="E115" s="4">
+        <v>329103998</v>
+      </c>
+      <c r="F115" s="4">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4525</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>4358</v>
+      </c>
+      <c r="E116" s="4">
+        <v>329103992</v>
+      </c>
+      <c r="F116" s="4">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4526</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>4359</v>
+      </c>
+      <c r="E117" s="4">
+        <v>329103985</v>
+      </c>
+      <c r="F117" s="4">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4527</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>4360</v>
+      </c>
+      <c r="E118" s="4">
+        <v>329103935</v>
+      </c>
+      <c r="F118" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="119" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4528</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>4361</v>
+      </c>
+      <c r="E119" s="4">
+        <v>329103872</v>
+      </c>
+      <c r="F119" s="4">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="120" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4529</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>4362</v>
+      </c>
+      <c r="E120" s="4">
+        <v>329103867</v>
+      </c>
+      <c r="F120" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="121" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4530</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>4363</v>
+      </c>
+      <c r="E121" s="4">
+        <v>329103844</v>
+      </c>
+      <c r="F121" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="122" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4531</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>4364</v>
+      </c>
+      <c r="E122" s="4">
+        <v>329103834</v>
+      </c>
+      <c r="F122" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="123" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4532</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>4365</v>
+      </c>
+      <c r="E123" s="4">
+        <v>329103815</v>
+      </c>
+      <c r="F123" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="124" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4533</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>4366</v>
+      </c>
+      <c r="E124" s="4">
+        <v>329103782</v>
+      </c>
+      <c r="F124" s="4">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="125" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4534</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>4367</v>
+      </c>
+      <c r="E125" s="4">
+        <v>329103753</v>
+      </c>
+      <c r="F125" s="4">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="126" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4535</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>4368</v>
+      </c>
+      <c r="E126" s="4">
+        <v>329103749</v>
+      </c>
+      <c r="F126" s="4">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="127" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4536</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>4369</v>
+      </c>
+      <c r="E127" s="4">
+        <v>329103644</v>
+      </c>
+      <c r="F127" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="128" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4537</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>4370</v>
+      </c>
+      <c r="E128" s="4">
+        <v>329103507</v>
+      </c>
+      <c r="F128" s="4">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="129" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4538</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>4371</v>
+      </c>
+      <c r="E129" s="4">
+        <v>329103496</v>
+      </c>
+      <c r="F129" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="130" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4539</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>4372</v>
+      </c>
+      <c r="E130" s="4">
+        <v>329103466</v>
+      </c>
+      <c r="F130" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="131" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" t="s">
+        <v>4540</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>4373</v>
+      </c>
+      <c r="E131" s="4">
+        <v>329103447</v>
+      </c>
+      <c r="F131" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="132" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4541</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>4374</v>
+      </c>
+      <c r="E132" s="4">
+        <v>329103432</v>
+      </c>
+      <c r="F132" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="133" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" t="s">
+        <v>4542</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>4375</v>
+      </c>
+      <c r="E133" s="4">
+        <v>329103379</v>
+      </c>
+      <c r="F133" s="4">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4543</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>4376</v>
+      </c>
+      <c r="E134" s="4">
+        <v>329103364</v>
+      </c>
+      <c r="F134" s="4">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="135" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4544</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135" s="4">
+        <v>28592655</v>
+      </c>
+      <c r="E135" s="4">
+        <v>329103328</v>
+      </c>
+      <c r="F135" s="4">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4545</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>4377</v>
+      </c>
+      <c r="E136" s="4">
+        <v>329103293</v>
+      </c>
+      <c r="F136" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="137" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4546</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>4378</v>
+      </c>
+      <c r="E137" s="4">
+        <v>329103182</v>
+      </c>
+      <c r="F137" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="138" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4547</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>4379</v>
+      </c>
+      <c r="E138" s="4">
+        <v>329103007</v>
+      </c>
+      <c r="F138" s="4">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="139" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>4548</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>4380</v>
+      </c>
+      <c r="E139" s="4">
+        <v>329102985</v>
+      </c>
+      <c r="F139" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="140" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" t="s">
+        <v>4549</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>4381</v>
+      </c>
+      <c r="E140" s="4">
+        <v>329102947</v>
+      </c>
+      <c r="F140" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="141" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" t="s">
+        <v>4550</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>4382</v>
+      </c>
+      <c r="E141" s="4">
+        <v>329102919</v>
+      </c>
+      <c r="F141" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="142" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4551</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>4383</v>
+      </c>
+      <c r="E142" s="4">
+        <v>329102907</v>
+      </c>
+      <c r="F142" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="143" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" t="s">
+        <v>4552</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>4384</v>
+      </c>
+      <c r="E143" s="4">
+        <v>329102843</v>
+      </c>
+      <c r="F143" s="4">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="144" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4553</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>4385</v>
+      </c>
+      <c r="E144" s="4">
+        <v>329102829</v>
+      </c>
+      <c r="F144" s="4">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="145" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" t="s">
+        <v>4554</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E145" s="4">
+        <v>329102791</v>
+      </c>
+      <c r="F145" s="4">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="146" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4555</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>4387</v>
+      </c>
+      <c r="E146" s="4">
+        <v>329102738</v>
+      </c>
+      <c r="F146" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="147" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" t="s">
+        <v>4556</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>4388</v>
+      </c>
+      <c r="E147" s="4">
+        <v>329102703</v>
+      </c>
+      <c r="F147" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="148" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4557</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>4389</v>
+      </c>
+      <c r="E148" s="4">
+        <v>329102681</v>
+      </c>
+      <c r="F148" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="149" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" t="s">
+        <v>4558</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>4390</v>
+      </c>
+      <c r="E149" s="4">
+        <v>329102653</v>
+      </c>
+      <c r="F149" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="150" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" t="s">
+        <v>4559</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>4391</v>
+      </c>
+      <c r="E150" s="4">
+        <v>329102623</v>
+      </c>
+      <c r="F150" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="151" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" t="s">
+        <v>4560</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>4392</v>
+      </c>
+      <c r="E151" s="4">
+        <v>329102583</v>
+      </c>
+      <c r="F151" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="152" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" t="s">
+        <v>4561</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>4393</v>
+      </c>
+      <c r="E152" s="4">
+        <v>329102498</v>
+      </c>
+      <c r="F152" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="153" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4562</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>4394</v>
+      </c>
+      <c r="E153" s="4">
+        <v>329102238</v>
+      </c>
+      <c r="F153" s="4">
+        <v>12.66</v>
+      </c>
+    </row>
+    <row r="154" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4563</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>4395</v>
+      </c>
+      <c r="E154" s="4">
+        <v>329102227</v>
+      </c>
+      <c r="F154" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="155" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" t="s">
+        <v>4564</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>4396</v>
+      </c>
+      <c r="E155" s="4">
+        <v>329102163</v>
+      </c>
+      <c r="F155" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="156" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" t="s">
+        <v>4565</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>4397</v>
+      </c>
+      <c r="E156" s="4">
+        <v>329102140</v>
+      </c>
+      <c r="F156" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="157" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" t="s">
+        <v>4566</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>4398</v>
+      </c>
+      <c r="E157" s="4">
+        <v>329102057</v>
+      </c>
+      <c r="F157" s="4">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="158" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" t="s">
+        <v>4567</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>4399</v>
+      </c>
+      <c r="E158" s="4">
+        <v>329102044</v>
+      </c>
+      <c r="F158" s="4">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="159" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" t="s">
+        <v>4568</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>4400</v>
+      </c>
+      <c r="E159" s="4">
+        <v>329101994</v>
+      </c>
+      <c r="F159" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="160" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" t="s">
+        <v>4569</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>4401</v>
+      </c>
+      <c r="E160" s="4">
+        <v>329101963</v>
+      </c>
+      <c r="F160" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="161" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>4402</v>
+      </c>
+      <c r="E161" s="4">
+        <v>329101947</v>
+      </c>
+      <c r="F161" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="162" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>4403</v>
+      </c>
+      <c r="E162" s="4">
+        <v>329101873</v>
+      </c>
+      <c r="F162" s="4">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="163" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>4404</v>
+      </c>
+      <c r="E163" s="4">
+        <v>329101859</v>
+      </c>
+      <c r="F163" s="4">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="164" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" t="s">
+        <v>4573</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>4405</v>
+      </c>
+      <c r="E164" s="4">
+        <v>329101826</v>
+      </c>
+      <c r="F164" s="4">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="165" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" t="s">
+        <v>4574</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>4406</v>
+      </c>
+      <c r="E165" s="4">
+        <v>329101775</v>
+      </c>
+      <c r="F165" s="4">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="166" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" t="s">
+        <v>4575</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>4407</v>
+      </c>
+      <c r="E166" s="4">
+        <v>329101736</v>
+      </c>
+      <c r="F166" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="167" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" t="s">
+        <v>4576</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>4408</v>
+      </c>
+      <c r="E167" s="4">
+        <v>329101708</v>
+      </c>
+      <c r="F167" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="168" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" t="s">
+        <v>4577</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>4409</v>
+      </c>
+      <c r="E168" s="4">
+        <v>329101660</v>
+      </c>
+      <c r="F168" s="4">
+        <v>7.36</v>
       </c>
     </row>
   </sheetData>
@@ -19248,11 +25515,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72837C1-A250-4429-940A-47740C3A20D1}">
   <dimension ref="A1:I2485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2416" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2430" sqref="C2430:C2485"/>
     </sheetView>
   </sheetViews>
@@ -66205,7 +72472,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2321" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D2321">
         <v>4849</v>
       </c>
@@ -66222,7 +72489,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2322" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D2322">
         <v>4849</v>
       </c>
@@ -66239,7 +72506,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2323" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D2323">
         <v>4849</v>
       </c>
@@ -66256,7 +72523,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2324" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D2324">
         <v>4849</v>
       </c>
@@ -66273,7 +72540,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2325" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D2325">
         <v>4849</v>
       </c>
@@ -66290,7 +72557,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2326" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D2326">
         <v>4849</v>
       </c>
@@ -66307,7 +72574,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2327" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D2327">
         <v>4849</v>
       </c>
@@ -66324,7 +72591,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2328" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D2328">
         <v>4849</v>
       </c>
@@ -66341,7 +72608,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2329" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D2329">
         <v>4849</v>
       </c>
@@ -66358,7 +72625,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2330" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D2330">
         <v>4849</v>
       </c>
@@ -66375,7 +72642,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2331" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D2331">
         <v>4849</v>
       </c>
@@ -66392,7 +72659,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2332" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D2332">
         <v>4849</v>
       </c>
@@ -66409,12 +72676,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2333" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2333" t="s">
         <v>16</v>
       </c>
       <c r="B2333" t="s">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="C2333" t="s">
         <v>4</v>
@@ -66435,12 +72702,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2334" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2334" t="s">
         <v>16</v>
       </c>
       <c r="B2334" t="s">
-        <v>4144</v>
+        <v>4143</v>
       </c>
       <c r="C2334" t="s">
         <v>4</v>
@@ -66461,12 +72728,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2335" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2335" t="s">
         <v>16</v>
       </c>
       <c r="B2335" t="s">
-        <v>4145</v>
+        <v>4144</v>
       </c>
       <c r="C2335" t="s">
         <v>4</v>
@@ -66487,12 +72754,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2336" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2336" t="s">
         <v>16</v>
       </c>
       <c r="B2336" t="s">
-        <v>4146</v>
+        <v>4145</v>
       </c>
       <c r="C2336" t="s">
         <v>4</v>
@@ -66513,12 +72780,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2337" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2337" t="s">
         <v>16</v>
       </c>
       <c r="B2337" t="s">
-        <v>4147</v>
+        <v>4146</v>
       </c>
       <c r="C2337" t="s">
         <v>4</v>
@@ -66539,12 +72806,12 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="2338" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2338" t="s">
         <v>16</v>
       </c>
       <c r="B2338" t="s">
-        <v>4148</v>
+        <v>4147</v>
       </c>
       <c r="C2338" t="s">
         <v>4</v>
@@ -66565,12 +72832,12 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="2339" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2339" t="s">
         <v>16</v>
       </c>
       <c r="B2339" t="s">
-        <v>4149</v>
+        <v>4148</v>
       </c>
       <c r="C2339" t="s">
         <v>4</v>
@@ -66591,12 +72858,12 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="2340" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2340" t="s">
         <v>16</v>
       </c>
       <c r="B2340" t="s">
-        <v>4150</v>
+        <v>4149</v>
       </c>
       <c r="C2340" t="s">
         <v>4</v>
@@ -66617,12 +72884,12 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="2341" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2341" t="s">
         <v>16</v>
       </c>
       <c r="B2341" t="s">
-        <v>4151</v>
+        <v>4150</v>
       </c>
       <c r="C2341" t="s">
         <v>4</v>
@@ -66643,12 +72910,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2342" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2342" t="s">
         <v>16</v>
       </c>
       <c r="B2342" t="s">
-        <v>4152</v>
+        <v>4151</v>
       </c>
       <c r="C2342" t="s">
         <v>4</v>
@@ -66669,12 +72936,12 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="2343" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2343" t="s">
         <v>16</v>
       </c>
       <c r="B2343" t="s">
-        <v>4153</v>
+        <v>4152</v>
       </c>
       <c r="C2343" t="s">
         <v>4</v>
@@ -66695,12 +72962,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2344" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2344" t="s">
         <v>16</v>
       </c>
       <c r="B2344" t="s">
-        <v>4154</v>
+        <v>4153</v>
       </c>
       <c r="C2344" t="s">
         <v>4</v>
@@ -66721,12 +72988,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2345" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2345" t="s">
         <v>16</v>
       </c>
       <c r="B2345" t="s">
-        <v>4155</v>
+        <v>4154</v>
       </c>
       <c r="C2345" t="s">
         <v>4</v>
@@ -66747,12 +73014,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2346" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2346" t="s">
         <v>16</v>
       </c>
       <c r="B2346" t="s">
-        <v>4156</v>
+        <v>4155</v>
       </c>
       <c r="C2346" t="s">
         <v>4</v>
@@ -66773,12 +73040,12 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="2347" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2347" t="s">
         <v>16</v>
       </c>
       <c r="B2347" t="s">
-        <v>4157</v>
+        <v>4156</v>
       </c>
       <c r="C2347" t="s">
         <v>4</v>
@@ -66799,12 +73066,12 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="2348" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2348" t="s">
         <v>16</v>
       </c>
       <c r="B2348" t="s">
-        <v>4158</v>
+        <v>4157</v>
       </c>
       <c r="C2348" t="s">
         <v>4</v>
@@ -66825,12 +73092,12 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="2349" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2349" t="s">
         <v>16</v>
       </c>
       <c r="B2349" t="s">
-        <v>4159</v>
+        <v>4158</v>
       </c>
       <c r="C2349" t="s">
         <v>4</v>
@@ -66851,12 +73118,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2350" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2350" t="s">
         <v>16</v>
       </c>
       <c r="B2350" t="s">
-        <v>4160</v>
+        <v>4159</v>
       </c>
       <c r="C2350" t="s">
         <v>4</v>
@@ -66877,12 +73144,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2351" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2351" t="s">
         <v>16</v>
       </c>
       <c r="B2351" t="s">
-        <v>4161</v>
+        <v>4160</v>
       </c>
       <c r="C2351" t="s">
         <v>4</v>
@@ -66903,12 +73170,12 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2352" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2352" t="s">
         <v>16</v>
       </c>
       <c r="B2352" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="C2352" t="s">
         <v>4</v>
@@ -66929,12 +73196,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2353" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2353" t="s">
         <v>16</v>
       </c>
       <c r="B2353" t="s">
-        <v>4163</v>
+        <v>4162</v>
       </c>
       <c r="C2353" t="s">
         <v>4</v>
@@ -66955,12 +73222,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2354" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2354" t="s">
         <v>16</v>
       </c>
       <c r="B2354" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="C2354" t="s">
         <v>4</v>
@@ -66981,12 +73248,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2355" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2355" t="s">
         <v>16</v>
       </c>
       <c r="B2355" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="C2355" t="s">
         <v>4</v>
@@ -67007,12 +73274,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2356" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2356" t="s">
         <v>16</v>
       </c>
       <c r="B2356" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="C2356" t="s">
         <v>4</v>
@@ -67033,12 +73300,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2357" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2357" t="s">
         <v>16</v>
       </c>
       <c r="B2357" t="s">
-        <v>4167</v>
+        <v>4166</v>
       </c>
       <c r="C2357" t="s">
         <v>4</v>
@@ -67059,12 +73326,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2358" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2358" t="s">
         <v>16</v>
       </c>
       <c r="B2358" t="s">
-        <v>4168</v>
+        <v>4167</v>
       </c>
       <c r="C2358" t="s">
         <v>4</v>
@@ -67085,12 +73352,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2359" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2359" t="s">
         <v>16</v>
       </c>
       <c r="B2359" t="s">
-        <v>4169</v>
+        <v>4168</v>
       </c>
       <c r="C2359" t="s">
         <v>4</v>
@@ -67111,12 +73378,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2360" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2360" t="s">
         <v>16</v>
       </c>
       <c r="B2360" t="s">
-        <v>4170</v>
+        <v>4169</v>
       </c>
       <c r="C2360" t="s">
         <v>4</v>
@@ -67137,12 +73404,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2361" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2361" t="s">
         <v>16</v>
       </c>
       <c r="B2361" t="s">
-        <v>4171</v>
+        <v>4170</v>
       </c>
       <c r="C2361" t="s">
         <v>4</v>
@@ -67163,12 +73430,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2362" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2362" t="s">
         <v>16</v>
       </c>
       <c r="B2362" t="s">
-        <v>4172</v>
+        <v>4171</v>
       </c>
       <c r="C2362" t="s">
         <v>4</v>
@@ -67189,12 +73456,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2363" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2363" t="s">
         <v>16</v>
       </c>
       <c r="B2363" t="s">
-        <v>4173</v>
+        <v>4172</v>
       </c>
       <c r="C2363" t="s">
         <v>4</v>
@@ -67215,12 +73482,12 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2364" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2364" t="s">
         <v>16</v>
       </c>
       <c r="B2364" t="s">
-        <v>4174</v>
+        <v>4173</v>
       </c>
       <c r="C2364" t="s">
         <v>4</v>
@@ -67241,12 +73508,12 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2365" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2365" t="s">
         <v>16</v>
       </c>
       <c r="B2365" t="s">
-        <v>4175</v>
+        <v>4174</v>
       </c>
       <c r="C2365" t="s">
         <v>4</v>
@@ -67267,12 +73534,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2366" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2366" t="s">
         <v>16</v>
       </c>
       <c r="B2366" t="s">
-        <v>4176</v>
+        <v>4175</v>
       </c>
       <c r="C2366" t="s">
         <v>4</v>
@@ -67293,12 +73560,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2367" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2367" t="s">
         <v>16</v>
       </c>
       <c r="B2367" t="s">
-        <v>4177</v>
+        <v>4176</v>
       </c>
       <c r="C2367" t="s">
         <v>4</v>
@@ -67319,12 +73586,12 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2368" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2368" t="s">
         <v>16</v>
       </c>
       <c r="B2368" t="s">
-        <v>4178</v>
+        <v>4177</v>
       </c>
       <c r="C2368" t="s">
         <v>4</v>
@@ -67345,12 +73612,12 @@
         <v>547</v>
       </c>
     </row>
-    <row r="2369" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2369" t="s">
         <v>16</v>
       </c>
       <c r="B2369" t="s">
-        <v>4179</v>
+        <v>4178</v>
       </c>
       <c r="C2369" t="s">
         <v>4</v>
@@ -67371,12 +73638,12 @@
         <v>547</v>
       </c>
     </row>
-    <row r="2370" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2370" t="s">
         <v>16</v>
       </c>
       <c r="B2370" t="s">
-        <v>4180</v>
+        <v>4179</v>
       </c>
       <c r="C2370" t="s">
         <v>4</v>
@@ -67397,12 +73664,12 @@
         <v>547</v>
       </c>
     </row>
-    <row r="2371" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2371" t="s">
         <v>16</v>
       </c>
       <c r="B2371" t="s">
-        <v>4181</v>
+        <v>4180</v>
       </c>
       <c r="C2371" t="s">
         <v>4</v>
@@ -67423,12 +73690,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2372" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2372" t="s">
         <v>16</v>
       </c>
       <c r="B2372" t="s">
-        <v>4182</v>
+        <v>4181</v>
       </c>
       <c r="C2372" t="s">
         <v>4</v>
@@ -67449,12 +73716,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2373" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2373" t="s">
         <v>16</v>
       </c>
       <c r="B2373" t="s">
-        <v>4183</v>
+        <v>4182</v>
       </c>
       <c r="C2373" t="s">
         <v>4</v>
@@ -67475,12 +73742,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2374" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2374" t="s">
         <v>16</v>
       </c>
       <c r="B2374" t="s">
-        <v>4184</v>
+        <v>4183</v>
       </c>
       <c r="C2374" t="s">
         <v>4</v>
@@ -67501,12 +73768,12 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2375" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2375" t="s">
         <v>16</v>
       </c>
       <c r="B2375" t="s">
-        <v>4185</v>
+        <v>4184</v>
       </c>
       <c r="C2375" t="s">
         <v>4</v>
@@ -67527,12 +73794,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2376" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2376" t="s">
         <v>16</v>
       </c>
       <c r="B2376" t="s">
-        <v>4186</v>
+        <v>4185</v>
       </c>
       <c r="C2376" t="s">
         <v>4</v>
@@ -67553,12 +73820,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2377" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2377" t="s">
         <v>16</v>
       </c>
       <c r="B2377" t="s">
-        <v>4187</v>
+        <v>4186</v>
       </c>
       <c r="C2377" t="s">
         <v>4</v>
@@ -67579,12 +73846,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2378" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2378" t="s">
         <v>16</v>
       </c>
       <c r="B2378" t="s">
-        <v>4188</v>
+        <v>4187</v>
       </c>
       <c r="C2378" t="s">
         <v>4</v>
@@ -67605,12 +73872,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2379" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2379" t="s">
         <v>16</v>
       </c>
       <c r="B2379" t="s">
-        <v>4189</v>
+        <v>4188</v>
       </c>
       <c r="C2379" t="s">
         <v>4</v>
@@ -67631,12 +73898,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2380" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2380" t="s">
         <v>16</v>
       </c>
       <c r="B2380" t="s">
-        <v>4190</v>
+        <v>4189</v>
       </c>
       <c r="C2380" t="s">
         <v>4</v>
@@ -67657,12 +73924,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2381" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2381" t="s">
         <v>16</v>
       </c>
       <c r="B2381" t="s">
-        <v>4191</v>
+        <v>4190</v>
       </c>
       <c r="C2381" t="s">
         <v>4</v>
@@ -67683,12 +73950,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2382" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2382" t="s">
         <v>16</v>
       </c>
       <c r="B2382" t="s">
-        <v>4192</v>
+        <v>4191</v>
       </c>
       <c r="C2382" t="s">
         <v>4</v>
@@ -67709,12 +73976,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2383" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2383" t="s">
         <v>16</v>
       </c>
       <c r="B2383" t="s">
-        <v>4193</v>
+        <v>4192</v>
       </c>
       <c r="C2383" t="s">
         <v>4</v>
@@ -67735,12 +74002,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2384" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2384" t="s">
         <v>16</v>
       </c>
       <c r="B2384" t="s">
-        <v>4194</v>
+        <v>4193</v>
       </c>
       <c r="C2384" t="s">
         <v>4</v>
@@ -67761,12 +74028,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2385" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2385" t="s">
         <v>16</v>
       </c>
       <c r="B2385" t="s">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="C2385" t="s">
         <v>4</v>
@@ -67787,12 +74054,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2386" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2386" t="s">
         <v>16</v>
       </c>
       <c r="B2386" t="s">
-        <v>4196</v>
+        <v>4195</v>
       </c>
       <c r="C2386" t="s">
         <v>4</v>
@@ -67813,12 +74080,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2387" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2387" t="s">
         <v>16</v>
       </c>
       <c r="B2387" t="s">
-        <v>4197</v>
+        <v>4196</v>
       </c>
       <c r="C2387" t="s">
         <v>4</v>
@@ -67839,12 +74106,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2388" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2388" t="s">
         <v>16</v>
       </c>
       <c r="B2388" t="s">
-        <v>4198</v>
+        <v>4197</v>
       </c>
       <c r="C2388" t="s">
         <v>4</v>
@@ -67865,12 +74132,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2389" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2389" t="s">
         <v>16</v>
       </c>
       <c r="B2389" t="s">
-        <v>4199</v>
+        <v>4198</v>
       </c>
       <c r="C2389" t="s">
         <v>4</v>
@@ -67891,12 +74158,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2390" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2390" t="s">
         <v>16</v>
       </c>
       <c r="B2390" t="s">
-        <v>4200</v>
+        <v>4199</v>
       </c>
       <c r="C2390" t="s">
         <v>4</v>
@@ -67917,12 +74184,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2391" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2391" t="s">
         <v>16</v>
       </c>
       <c r="B2391" t="s">
-        <v>4201</v>
+        <v>4200</v>
       </c>
       <c r="C2391" t="s">
         <v>4</v>
@@ -67943,12 +74210,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2392" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2392" t="s">
         <v>16</v>
       </c>
       <c r="B2392" t="s">
-        <v>4202</v>
+        <v>4201</v>
       </c>
       <c r="C2392" t="s">
         <v>4</v>
@@ -67969,12 +74236,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2393" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2393" t="s">
         <v>16</v>
       </c>
       <c r="B2393" t="s">
-        <v>4203</v>
+        <v>4202</v>
       </c>
       <c r="C2393" t="s">
         <v>4</v>
@@ -67995,12 +74262,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2394" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2394" t="s">
         <v>16</v>
       </c>
       <c r="B2394" t="s">
-        <v>4204</v>
+        <v>4203</v>
       </c>
       <c r="C2394" t="s">
         <v>4</v>
@@ -68021,12 +74288,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2395" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2395" t="s">
         <v>16</v>
       </c>
       <c r="B2395" t="s">
-        <v>4205</v>
+        <v>4204</v>
       </c>
       <c r="C2395" t="s">
         <v>4</v>
@@ -68047,12 +74314,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2396" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2396" t="s">
         <v>16</v>
       </c>
       <c r="B2396" t="s">
-        <v>4206</v>
+        <v>4205</v>
       </c>
       <c r="C2396" t="s">
         <v>4</v>
@@ -68073,12 +74340,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2397" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2397" t="s">
         <v>16</v>
       </c>
       <c r="B2397" t="s">
-        <v>4207</v>
+        <v>4206</v>
       </c>
       <c r="C2397" t="s">
         <v>4</v>
@@ -68099,12 +74366,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2398" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2398" t="s">
         <v>16</v>
       </c>
       <c r="B2398" t="s">
-        <v>4208</v>
+        <v>4207</v>
       </c>
       <c r="C2398" t="s">
         <v>4</v>
@@ -68125,12 +74392,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2399" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2399" t="s">
         <v>16</v>
       </c>
       <c r="B2399" t="s">
-        <v>4209</v>
+        <v>4208</v>
       </c>
       <c r="C2399" t="s">
         <v>4</v>
@@ -68151,12 +74418,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2400" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2400" t="s">
         <v>16</v>
       </c>
       <c r="B2400" t="s">
-        <v>4210</v>
+        <v>4209</v>
       </c>
       <c r="C2400" t="s">
         <v>4</v>
@@ -68177,12 +74444,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2401" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2401" t="s">
         <v>16</v>
       </c>
       <c r="B2401" t="s">
-        <v>4211</v>
+        <v>4210</v>
       </c>
       <c r="C2401" t="s">
         <v>4</v>
@@ -68203,12 +74470,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2402" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2402" t="s">
         <v>16</v>
       </c>
       <c r="B2402" t="s">
-        <v>4212</v>
+        <v>4211</v>
       </c>
       <c r="C2402" t="s">
         <v>4</v>
@@ -68229,12 +74496,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2403" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2403" t="s">
         <v>16</v>
       </c>
       <c r="B2403" t="s">
-        <v>4213</v>
+        <v>4212</v>
       </c>
       <c r="C2403" t="s">
         <v>4</v>
@@ -68255,12 +74522,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2404" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2404" t="s">
         <v>16</v>
       </c>
       <c r="B2404" t="s">
-        <v>4214</v>
+        <v>4213</v>
       </c>
       <c r="C2404" t="s">
         <v>4</v>
@@ -68281,12 +74548,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2405" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2405" t="s">
         <v>16</v>
       </c>
       <c r="B2405" t="s">
-        <v>4215</v>
+        <v>4214</v>
       </c>
       <c r="C2405" t="s">
         <v>4</v>
@@ -68307,12 +74574,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2406" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2406" t="s">
         <v>16</v>
       </c>
       <c r="B2406" t="s">
-        <v>4216</v>
+        <v>4215</v>
       </c>
       <c r="C2406" t="s">
         <v>4</v>
@@ -68333,12 +74600,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2407" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2407" t="s">
         <v>16</v>
       </c>
       <c r="B2407" t="s">
-        <v>4217</v>
+        <v>4216</v>
       </c>
       <c r="C2407" t="s">
         <v>4</v>
@@ -68359,12 +74626,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2408" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2408" t="s">
         <v>16</v>
       </c>
       <c r="B2408" t="s">
-        <v>4218</v>
+        <v>4217</v>
       </c>
       <c r="C2408" t="s">
         <v>4</v>
@@ -68385,12 +74652,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2409" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2409" t="s">
         <v>16</v>
       </c>
       <c r="B2409" t="s">
-        <v>4219</v>
+        <v>4218</v>
       </c>
       <c r="C2409" t="s">
         <v>4</v>
@@ -68411,12 +74678,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2410" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2410" t="s">
         <v>16</v>
       </c>
       <c r="B2410" t="s">
-        <v>4220</v>
+        <v>4219</v>
       </c>
       <c r="C2410" t="s">
         <v>4</v>
@@ -68437,12 +74704,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2411" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2411" t="s">
         <v>16</v>
       </c>
       <c r="B2411" t="s">
-        <v>4221</v>
+        <v>4220</v>
       </c>
       <c r="C2411" t="s">
         <v>4</v>
@@ -68463,12 +74730,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2412" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2412" t="s">
         <v>16</v>
       </c>
       <c r="B2412" t="s">
-        <v>4222</v>
+        <v>4221</v>
       </c>
       <c r="C2412" t="s">
         <v>4</v>
@@ -68489,12 +74756,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2413" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2413" t="s">
         <v>16</v>
       </c>
       <c r="B2413" t="s">
-        <v>4223</v>
+        <v>4222</v>
       </c>
       <c r="C2413" t="s">
         <v>4</v>
@@ -68515,12 +74782,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2414" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2414" t="s">
         <v>16</v>
       </c>
       <c r="B2414" t="s">
-        <v>4224</v>
+        <v>4223</v>
       </c>
       <c r="C2414" t="s">
         <v>4</v>
@@ -68541,12 +74808,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2415" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2415" t="s">
         <v>16</v>
       </c>
       <c r="B2415" t="s">
-        <v>4225</v>
+        <v>4224</v>
       </c>
       <c r="C2415" t="s">
         <v>4</v>
@@ -68567,12 +74834,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2416" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2416" t="s">
         <v>16</v>
       </c>
       <c r="B2416" t="s">
-        <v>4226</v>
+        <v>4225</v>
       </c>
       <c r="C2416" t="s">
         <v>4</v>
@@ -68593,12 +74860,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2417" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2417" t="s">
         <v>16</v>
       </c>
       <c r="B2417" t="s">
-        <v>4227</v>
+        <v>4226</v>
       </c>
       <c r="C2417" t="s">
         <v>4</v>
@@ -68619,12 +74886,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2418" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2418" t="s">
         <v>16</v>
       </c>
       <c r="B2418" t="s">
-        <v>4228</v>
+        <v>4227</v>
       </c>
       <c r="C2418" t="s">
         <v>4</v>
@@ -68645,12 +74912,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2419" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2419" t="s">
         <v>16</v>
       </c>
       <c r="B2419" t="s">
-        <v>4229</v>
+        <v>4228</v>
       </c>
       <c r="C2419" t="s">
         <v>4</v>
@@ -68671,12 +74938,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2420" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2420" t="s">
         <v>16</v>
       </c>
       <c r="B2420" t="s">
-        <v>4230</v>
+        <v>4229</v>
       </c>
       <c r="C2420" t="s">
         <v>4</v>
@@ -68697,12 +74964,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2421" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2421" t="s">
         <v>16</v>
       </c>
       <c r="B2421" t="s">
-        <v>4231</v>
+        <v>4230</v>
       </c>
       <c r="C2421" t="s">
         <v>4</v>
@@ -68723,12 +74990,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2422" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2422" t="s">
         <v>16</v>
       </c>
       <c r="B2422" t="s">
-        <v>4232</v>
+        <v>4231</v>
       </c>
       <c r="C2422" t="s">
         <v>4</v>
@@ -68749,12 +75016,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2423" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2423" t="s">
         <v>16</v>
       </c>
       <c r="B2423" t="s">
-        <v>4233</v>
+        <v>4232</v>
       </c>
       <c r="C2423" t="s">
         <v>4</v>
@@ -68775,12 +75042,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2424" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2424" t="s">
         <v>16</v>
       </c>
       <c r="B2424" t="s">
-        <v>4234</v>
+        <v>4233</v>
       </c>
       <c r="C2424" t="s">
         <v>4</v>
@@ -68801,12 +75068,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2425" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2425" t="s">
         <v>16</v>
       </c>
       <c r="B2425" t="s">
-        <v>4235</v>
+        <v>4234</v>
       </c>
       <c r="C2425" t="s">
         <v>4</v>
@@ -68827,12 +75094,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2426" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2426" t="s">
         <v>16</v>
       </c>
       <c r="B2426" t="s">
-        <v>4236</v>
+        <v>4235</v>
       </c>
       <c r="C2426" t="s">
         <v>4</v>
@@ -68853,12 +75120,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2427" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2427" t="s">
         <v>16</v>
       </c>
       <c r="B2427" t="s">
-        <v>4237</v>
+        <v>4236</v>
       </c>
       <c r="C2427" t="s">
         <v>4</v>
@@ -68879,12 +75146,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2428" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2428" t="s">
         <v>16</v>
       </c>
       <c r="B2428" t="s">
-        <v>4238</v>
+        <v>4237</v>
       </c>
       <c r="C2428" t="s">
         <v>4</v>
@@ -68905,12 +75172,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2429" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2429" t="s">
         <v>16</v>
       </c>
       <c r="B2429" t="s">
-        <v>4239</v>
+        <v>4238</v>
       </c>
       <c r="C2429" t="s">
         <v>4</v>
@@ -68931,7 +75198,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2430" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D2430">
         <v>3939</v>
       </c>
@@ -68948,7 +75215,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="2431" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D2431">
         <v>2024</v>
       </c>
@@ -68965,7 +75232,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2432" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D2432">
         <v>4091</v>
       </c>
@@ -69893,12 +76160,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="acacf6df-7f2b-4e22-b0f3-7512e3e41353" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -70127,17 +76393,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="acacf6df-7f2b-4e22-b0f3-7512e3e41353" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92B33282-DA3D-42FE-BA2A-24C428B7C579}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35F3410C-C74A-41CF-8658-138963324197}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="acacf6df-7f2b-4e22-b0f3-7512e3e41353"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a46146ca-227b-4078-8d7d-54f809a0c7c3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -70162,18 +76438,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35F3410C-C74A-41CF-8658-138963324197}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92B33282-DA3D-42FE-BA2A-24C428B7C579}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="acacf6df-7f2b-4e22-b0f3-7512e3e41353"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a46146ca-227b-4078-8d7d-54f809a0c7c3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>